--- a/1.5FrameAnalysis/output/analysis.xlsx
+++ b/1.5FrameAnalysis/output/analysis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3151D50-B79F-4B63-8EAD-3DAB4783EBC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4596FB-6E5A-41DB-98A0-BBFA2D181E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,10 +18,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7936,9 +7932,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>236220</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8240,7 +8236,7 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0.1</v>
       </c>
@@ -8254,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -8268,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.3</v>
       </c>
@@ -8282,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.4</v>
       </c>
@@ -8296,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.5</v>
       </c>
@@ -8310,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.6</v>
       </c>
@@ -8324,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.7</v>
       </c>
@@ -8338,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.8</v>
       </c>
@@ -8352,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.9</v>
       </c>
@@ -8366,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -8380,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1873.87</v>
       </c>
@@ -8394,7 +8390,7 @@
         <v>-1.8918900000000001E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3747.75</v>
       </c>
@@ -8408,7 +8404,7 @@
         <v>-3.7837800000000002E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5621.62</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>-5.6756799999999996E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7495.5</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>-7.5675700000000005E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9369.3700000000008</v>
       </c>
@@ -8450,7 +8446,7 @@
         <v>-9.4594600000000003E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11243.2</v>
       </c>
@@ -8464,7 +8460,7 @@
         <v>-1.13514E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13117.1</v>
       </c>
@@ -8478,7 +8474,7 @@
         <v>-1.3243199999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14991</v>
       </c>
@@ -8492,7 +8488,7 @@
         <v>-1.51351E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16864.900000000001</v>
       </c>
@@ -8506,7 +8502,7 @@
         <v>-1.7026999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18738.7</v>
       </c>
@@ -8520,7 +8516,7 @@
         <v>-1.89189E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20612.599999999999</v>
       </c>
@@ -8534,7 +8530,7 @@
         <v>-2.0810799999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22486.5</v>
       </c>
@@ -8548,7 +8544,7 @@
         <v>-2.27027E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24360.400000000001</v>
       </c>
@@ -8562,7 +8558,7 @@
         <v>-2.4594600000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>26234.2</v>
       </c>
@@ -8576,7 +8572,7 @@
         <v>-2.6486499999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>28108.1</v>
       </c>
@@ -8590,7 +8586,7 @@
         <v>-2.8378399999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>29982</v>
       </c>
@@ -8604,7 +8600,7 @@
         <v>-3.02703E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>31855.9</v>
       </c>
@@ -8618,7 +8614,7 @@
         <v>-3.2162200000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>33729.699999999997</v>
       </c>
@@ -8632,7 +8628,7 @@
         <v>-3.4054100000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>35603.599999999999</v>
       </c>
@@ -8646,7 +8642,7 @@
         <v>-3.5945899999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37477.5</v>
       </c>
@@ -8660,7 +8656,7 @@
         <v>-3.78378E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>39351.4</v>
       </c>
@@ -8674,7 +8670,7 @@
         <v>-3.9729700000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41225.199999999997</v>
       </c>
@@ -8688,7 +8684,7 @@
         <v>-4.1621599999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43099.1</v>
       </c>
@@ -8702,7 +8698,7 @@
         <v>-4.3513500000000004E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44973</v>
       </c>
@@ -8716,7 +8712,7 @@
         <v>-4.54054E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46846.8</v>
       </c>
@@ -8730,7 +8726,7 @@
         <v>-4.7297299999999997E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>48720.7</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>-4.9189200000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>50594.6</v>
       </c>
@@ -8758,7 +8754,7 @@
         <v>-5.1081099999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>52468.5</v>
       </c>
@@ -8772,7 +8768,7 @@
         <v>-5.2972999999999996E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>54342.3</v>
       </c>
@@ -8786,7 +8782,7 @@
         <v>-5.4864900000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>56216.2</v>
       </c>
@@ -8800,7 +8796,7 @@
         <v>-5.6756799999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>58090.1</v>
       </c>
@@ -8814,7 +8810,7 @@
         <v>-5.8648600000000004E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>59964</v>
       </c>
@@ -8828,7 +8824,7 @@
         <v>-6.0540500000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>61837.8</v>
       </c>
@@ -8842,7 +8838,7 @@
         <v>-6.2432399999999997E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>63711.7</v>
       </c>
@@ -8856,7 +8852,7 @@
         <v>-6.4324300000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>65585.600000000006</v>
       </c>
@@ -8870,7 +8866,7 @@
         <v>-6.6216199999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>67459.5</v>
       </c>
@@ -8884,7 +8880,7 @@
         <v>-6.8108099999999996E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>69333.3</v>
       </c>
@@ -8898,7 +8894,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>71207.199999999997</v>
       </c>
@@ -8912,7 +8908,7 @@
         <v>-7.1891899999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>73081.100000000006</v>
       </c>
@@ -8926,7 +8922,7 @@
         <v>-7.3783800000000004E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>74955</v>
       </c>
@@ -8940,7 +8936,7 @@
         <v>-7.56757E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>76828.800000000003</v>
       </c>
@@ -8954,7 +8950,7 @@
         <v>-7.7567599999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>78702.7</v>
       </c>
@@ -8968,7 +8964,7 @@
         <v>-7.9459500000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>80576.600000000006</v>
       </c>
@@ -8982,7 +8978,7 @@
         <v>-8.1351400000000008E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>82450.5</v>
       </c>
@@ -8996,7 +8992,7 @@
         <v>-8.3243199999999996E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>84324.3</v>
       </c>
@@ -9010,7 +9006,7 @@
         <v>-8.5135100000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>86198.2</v>
       </c>
@@ -9024,7 +9020,7 @@
         <v>-8.7027000000000007E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>88072.1</v>
       </c>
@@ -9038,7 +9034,7 @@
         <v>-8.8918899999999995E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>89945.9</v>
       </c>
@@ -9052,7 +9048,7 @@
         <v>-9.0810800000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>91819.8</v>
       </c>
@@ -9066,7 +9062,7 @@
         <v>-9.2702700000000006E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>93693.7</v>
       </c>
@@ -9080,7 +9076,7 @@
         <v>-9.4594599999999994E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>95567.6</v>
       </c>
@@ -9094,7 +9090,7 @@
         <v>-9.6486499999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>97441.4</v>
       </c>
@@ -9108,7 +9104,7 @@
         <v>-9.8378400000000005E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>99315.3</v>
       </c>
@@ -9122,7 +9118,7 @@
         <v>-1.0026999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>101189</v>
       </c>
@@ -9136,7 +9132,7 @@
         <v>-1.02162E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>103063</v>
       </c>
@@ -9150,7 +9146,7 @@
         <v>-1.04054E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>104937</v>
       </c>
@@ -9164,7 +9160,7 @@
         <v>-1.0594599999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>106811</v>
       </c>
@@ -9178,7 +9174,7 @@
         <v>-1.07838E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>108685</v>
       </c>
@@ -9192,7 +9188,7 @@
         <v>-1.0973E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>110559</v>
       </c>
@@ -9206,7 +9202,7 @@
         <v>-1.1162200000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>112432</v>
       </c>
@@ -9220,7 +9216,7 @@
         <v>-1.1351399999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>114306</v>
       </c>
@@ -9234,7 +9230,7 @@
         <v>-1.15405E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>116180</v>
       </c>
@@ -9248,7 +9244,7 @@
         <v>-1.1729699999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>118054</v>
       </c>
@@ -9262,7 +9258,7 @@
         <v>-1.19189E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>119928</v>
       </c>
@@ -9276,7 +9272,7 @@
         <v>-1.21081E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>121802</v>
       </c>
@@ -9290,7 +9286,7 @@
         <v>-1.2297300000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>123676</v>
       </c>
@@ -9304,7 +9300,7 @@
         <v>-1.2486499999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>125550</v>
       </c>
@@ -9318,7 +9314,7 @@
         <v>-1.26757E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>127423</v>
       </c>
@@ -9332,7 +9328,7 @@
         <v>-1.28649E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>129297</v>
       </c>
@@ -9346,7 +9342,7 @@
         <v>-1.3054100000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>131171</v>
       </c>
@@ -9360,7 +9356,7 @@
         <v>-1.32432E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>133045</v>
       </c>
@@ -9374,7 +9370,7 @@
         <v>-1.3432400000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>134919</v>
       </c>
@@ -9388,7 +9384,7 @@
         <v>-1.3621599999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>136793</v>
       </c>
@@ -9402,7 +9398,7 @@
         <v>-1.38108E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>138667</v>
       </c>
@@ -9416,7 +9412,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>140541</v>
       </c>
@@ -9430,7 +9426,7 @@
         <v>-1.4189200000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>142414</v>
       </c>
@@ -9444,7 +9440,7 @@
         <v>-1.43784E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>144288</v>
       </c>
@@ -9458,7 +9454,7 @@
         <v>-1.45676E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>146162</v>
       </c>
@@ -9472,7 +9468,7 @@
         <v>-1.47568E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>148036</v>
       </c>
@@ -9486,7 +9482,7 @@
         <v>-1.49459E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>149910</v>
       </c>
@@ -9500,7 +9496,7 @@
         <v>-1.51351E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>151784</v>
       </c>
@@ -9514,7 +9510,7 @@
         <v>-1.5324300000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>153658</v>
       </c>
@@ -9528,7 +9524,7 @@
         <v>-1.55135E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>155532</v>
       </c>
@@ -9542,7 +9538,7 @@
         <v>-1.57027E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>157405</v>
       </c>
@@ -9556,7 +9552,7 @@
         <v>-1.58919E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>159279</v>
       </c>
@@ -9570,7 +9566,7 @@
         <v>-1.6081100000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>161153</v>
       </c>
@@ -9584,7 +9580,7 @@
         <v>-1.6270300000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>163027</v>
       </c>
@@ -9598,7 +9594,7 @@
         <v>-1.6459499999999998E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>164901</v>
       </c>
@@ -9612,7 +9608,7 @@
         <v>-1.66486E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>166775</v>
       </c>
@@ -9626,7 +9622,7 @@
         <v>-1.68378E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>168649</v>
       </c>
@@ -9640,7 +9636,7 @@
         <v>-1.7027E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>170523</v>
       </c>
@@ -9654,7 +9650,7 @@
         <v>-1.7216200000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>172396</v>
       </c>
@@ -9668,7 +9664,7 @@
         <v>-1.7405400000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>174270</v>
       </c>
@@ -9682,7 +9678,7 @@
         <v>-1.7594599999999998E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>176144</v>
       </c>
@@ -9696,7 +9692,7 @@
         <v>-1.7783799999999999E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>178018</v>
       </c>
@@ -9710,7 +9706,7 @@
         <v>-1.7972999999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>179892</v>
       </c>
@@ -9724,7 +9720,7 @@
         <v>-1.81622E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>181766</v>
       </c>
@@ -9738,7 +9734,7 @@
         <v>-1.83514E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>183640</v>
       </c>
@@ -9752,7 +9748,7 @@
         <v>-1.8540500000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>185514</v>
       </c>
@@ -9766,7 +9762,7 @@
         <v>-1.8729699999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>187387</v>
       </c>
@@ -9780,7 +9776,7 @@
         <v>-1.8918899999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>189261</v>
       </c>
@@ -9794,7 +9790,7 @@
         <v>-1.9108099999999999E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>191135</v>
       </c>
@@ -9808,7 +9804,7 @@
         <v>-1.92973E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>193009</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>-1.94865E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>194883</v>
       </c>
@@ -9836,7 +9832,7 @@
         <v>-1.9675700000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>196757</v>
       </c>
@@ -9850,7 +9846,7 @@
         <v>-1.9864900000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>198631</v>
       </c>
@@ -9864,7 +9860,7 @@
         <v>-2.0054099999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>200505</v>
       </c>
@@ -9878,7 +9874,7 @@
         <v>-2.0243199999999999E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>202378</v>
       </c>
@@ -9892,7 +9888,7 @@
         <v>-2.04324E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>204252</v>
       </c>
@@ -9906,7 +9902,7 @@
         <v>-2.06216E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>206126</v>
       </c>
@@ -9920,7 +9916,7 @@
         <v>-2.0810800000000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>208000</v>
       </c>
@@ -9934,7 +9930,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>209874</v>
       </c>
@@ -9948,7 +9944,7 @@
         <v>-2.1189199999999998E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>211748</v>
       </c>
@@ -9962,7 +9958,7 @@
         <v>-2.1378399999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>213622</v>
       </c>
@@ -9976,7 +9972,7 @@
         <v>-2.1567599999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>215495</v>
       </c>
@@ -9990,7 +9986,7 @@
         <v>-2.17568E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>217369</v>
       </c>
@@ -10004,7 +10000,7 @@
         <v>-2.1945900000000001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>219243</v>
       </c>
@@ -10018,7 +10014,7 @@
         <v>-2.2135100000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>221117</v>
       </c>
@@ -10032,7 +10028,7 @@
         <v>-2.2324299999999998E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>222991</v>
       </c>
@@ -10046,7 +10042,7 @@
         <v>-2.2513499999999999E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>224865</v>
       </c>
@@ -10060,7 +10056,7 @@
         <v>-2.2702699999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>226739</v>
       </c>
@@ -10074,7 +10070,7 @@
         <v>-2.28919E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>228613</v>
       </c>
@@ -10088,7 +10084,7 @@
         <v>-2.30811E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>230486</v>
       </c>
@@ -10102,7 +10098,7 @@
         <v>-2.3270300000000001E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>232360</v>
       </c>
@@ -10116,7 +10112,7 @@
         <v>-2.3459500000000001E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>234234</v>
       </c>
@@ -10130,7 +10126,7 @@
         <v>-2.3648599999999999E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>236108</v>
       </c>
@@ -10144,7 +10140,7 @@
         <v>-2.3837799999999999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>237982</v>
       </c>
@@ -10158,7 +10154,7 @@
         <v>-2.4027E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>239856</v>
       </c>
@@ -10172,7 +10168,7 @@
         <v>-2.42162E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>241730</v>
       </c>
@@ -10186,7 +10182,7 @@
         <v>-2.4405400000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>243604</v>
       </c>
@@ -10200,7 +10196,7 @@
         <v>-2.4594600000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>245477</v>
       </c>
@@ -10214,7 +10210,7 @@
         <v>-2.4783800000000002E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>247351</v>
       </c>
@@ -10228,7 +10224,7 @@
         <v>-2.4972999999999999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>249225</v>
       </c>
@@ -10242,7 +10238,7 @@
         <v>-2.5162199999999999E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>251099</v>
       </c>
@@ -10256,7 +10252,7 @@
         <v>-2.53514E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>252973</v>
       </c>
@@ -10270,7 +10266,7 @@
         <v>-2.5540500000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>254847</v>
       </c>
@@ -10284,7 +10280,7 @@
         <v>-2.5729700000000001E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>256721</v>
       </c>
@@ -10298,7 +10294,7 @@
         <v>-2.5918900000000002E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>258595</v>
       </c>
@@ -10312,7 +10308,7 @@
         <v>-2.6108099999999999E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>260468</v>
       </c>
@@ -10326,7 +10322,7 @@
         <v>-2.6297299999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>262342</v>
       </c>
@@ -10340,7 +10336,7 @@
         <v>-2.64865E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>264216</v>
       </c>
@@ -10354,7 +10350,7 @@
         <v>-2.66757E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>266090</v>
       </c>
@@ -10368,7 +10364,7 @@
         <v>-2.6864900000000001E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>267964</v>
       </c>
@@ -10382,7 +10378,7 @@
         <v>-2.7054100000000001E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>269838</v>
       </c>
@@ -10396,7 +10392,7 @@
         <v>-2.7243199999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>271712</v>
       </c>
@@ -10410,7 +10406,7 @@
         <v>-2.7432399999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>273586</v>
       </c>
@@ -10424,7 +10420,7 @@
         <v>-2.76216E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>275459</v>
       </c>
@@ -10438,7 +10434,7 @@
         <v>-2.78108E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>277333</v>
       </c>
@@ -10452,7 +10448,7 @@
         <v>-2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>279207</v>
       </c>
@@ -10466,7 +10462,7 @@
         <v>-2.8189200000000001E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>281081</v>
       </c>
@@ -10480,7 +10476,7 @@
         <v>-2.8378400000000002E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>282955</v>
       </c>
@@ -10494,7 +10490,7 @@
         <v>-2.8567599999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>284829</v>
       </c>
@@ -10508,7 +10504,7 @@
         <v>-2.8756799999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>286703</v>
       </c>
@@ -10522,7 +10518,7 @@
         <v>-2.89459E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>288577</v>
       </c>
@@ -10536,7 +10532,7 @@
         <v>-2.9135100000000001E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>290450</v>
       </c>
@@ -10550,7 +10546,7 @@
         <v>-2.9324300000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>292324</v>
       </c>
@@ -10564,7 +10560,7 @@
         <v>-2.9513500000000002E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>294198</v>
       </c>
@@ -10578,7 +10574,7 @@
         <v>-2.9702699999999999E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>296072</v>
       </c>
@@ -10592,7 +10588,7 @@
         <v>-2.9891899999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>297946</v>
       </c>
@@ -10606,7 +10602,7 @@
         <v>-3.00811E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>299820</v>
       </c>
@@ -10620,7 +10616,7 @@
         <v>-3.02703E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>301694</v>
       </c>
@@ -10634,7 +10630,7 @@
         <v>-3.04595E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>303568</v>
       </c>
@@ -10648,7 +10644,7 @@
         <v>-3.0648600000000002E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>305441</v>
       </c>
@@ -10662,7 +10658,7 @@
         <v>-3.0837799999999999E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>307315</v>
       </c>
@@ -10676,7 +10672,7 @@
         <v>-3.1026999999999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>309189</v>
       </c>
@@ -10690,7 +10686,7 @@
         <v>-3.12162E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>311063</v>
       </c>
@@ -10704,7 +10700,7 @@
         <v>-3.14054E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>312937</v>
       </c>
@@ -10718,7 +10714,7 @@
         <v>-3.15946E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>314811</v>
       </c>
@@ -10732,7 +10728,7 @@
         <v>-3.1783800000000001E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>316685</v>
       </c>
@@ -10746,7 +10742,7 @@
         <v>-3.1973000000000001E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>318559</v>
       </c>
@@ -10760,7 +10756,7 @@
         <v>-3.2162200000000002E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>320432</v>
       </c>
@@ -10774,7 +10770,7 @@
         <v>-3.2351400000000002E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>322306</v>
       </c>
@@ -10788,7 +10784,7 @@
         <v>-3.25405E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>324180</v>
       </c>
@@ -10802,7 +10798,7 @@
         <v>-3.27297E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>326054</v>
       </c>
@@ -10816,7 +10812,7 @@
         <v>-3.2918900000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>327928</v>
       </c>
@@ -10830,7 +10826,7 @@
         <v>-3.3108100000000001E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>329802</v>
       </c>
@@ -10844,7 +10840,7 @@
         <v>-3.3297300000000002E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>331676</v>
       </c>
@@ -10858,7 +10854,7 @@
         <v>-3.3486500000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>333550</v>
       </c>
@@ -10872,7 +10868,7 @@
         <v>-3.3675700000000003E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>335423</v>
       </c>
@@ -10886,7 +10882,7 @@
         <v>-3.3864900000000003E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>337297</v>
       </c>
@@ -10900,7 +10896,7 @@
         <v>-3.4054099999999997E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>339171</v>
       </c>
@@ -10914,7 +10910,7 @@
         <v>-3.4243200000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>341045</v>
       </c>
@@ -10928,7 +10924,7 @@
         <v>-3.4432400000000002E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>342919</v>
       </c>
@@ -10942,7 +10938,7 @@
         <v>-3.4621600000000002E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>344793</v>
       </c>
@@ -10956,7 +10952,7 @@
         <v>-3.4810800000000003E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>346667</v>
       </c>
@@ -10970,7 +10966,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>348541</v>
       </c>
@@ -10984,7 +10980,7 @@
         <v>-3.5189199999999997E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>350414</v>
       </c>
@@ -10998,7 +10994,7 @@
         <v>-3.5378399999999997E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>352288</v>
       </c>
@@ -11012,7 +11008,7 @@
         <v>-3.5567599999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>354162</v>
       </c>
@@ -11026,7 +11022,7 @@
         <v>-3.5756799999999998E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>356036</v>
       </c>
@@ -11040,7 +11036,7 @@
         <v>-3.5945900000000003E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>357910</v>
       </c>
@@ -11054,7 +11050,7 @@
         <v>-3.6135100000000003E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>359784</v>
       </c>
@@ -11068,7 +11064,7 @@
         <v>-3.6324299999999997E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>361658</v>
       </c>
@@ -11082,7 +11078,7 @@
         <v>-3.6513499999999997E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>363532</v>
       </c>
@@ -11096,7 +11092,7 @@
         <v>-3.6702699999999998E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>365405</v>
       </c>
@@ -11110,7 +11106,7 @@
         <v>-3.6891899999999998E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>367279</v>
       </c>
@@ -11124,7 +11120,7 @@
         <v>-3.7081099999999999E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>369153</v>
       </c>
@@ -11138,7 +11134,7 @@
         <v>-3.7270299999999999E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>371027</v>
       </c>
@@ -11152,7 +11148,7 @@
         <v>-3.74595E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>372901</v>
       </c>
@@ -11166,7 +11162,7 @@
         <v>-3.7648599999999997E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>374775</v>
       </c>
@@ -11180,7 +11176,7 @@
         <v>-3.7837799999999998E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>376649</v>
       </c>
@@ -11194,7 +11190,7 @@
         <v>-3.8026999999999998E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>378523</v>
       </c>
@@ -11208,7 +11204,7 @@
         <v>-3.8216199999999999E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>380396</v>
       </c>
@@ -11222,7 +11218,7 @@
         <v>-3.8405399999999999E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>382270</v>
       </c>
@@ -11236,7 +11232,7 @@
         <v>-3.85946E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>384144</v>
       </c>
@@ -11250,7 +11246,7 @@
         <v>-3.87838E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>386018</v>
       </c>
@@ -11264,7 +11260,7 @@
         <v>-3.8973000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>387892</v>
       </c>
@@ -11278,7 +11274,7 @@
         <v>-3.9162200000000001E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>389766</v>
       </c>
@@ -11292,7 +11288,7 @@
         <v>-3.9351400000000002E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>391640</v>
       </c>
@@ -11306,7 +11302,7 @@
         <v>-3.9540499999999999E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>393514</v>
       </c>
@@ -11320,7 +11316,7 @@
         <v>-3.97297E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>395387</v>
       </c>
@@ -11334,7 +11330,7 @@
         <v>-3.99189E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>397261</v>
       </c>
@@ -11348,7 +11344,7 @@
         <v>-4.0108100000000001E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>399135</v>
       </c>
@@ -11362,7 +11358,7 @@
         <v>-4.0297300000000001E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>401009</v>
       </c>
@@ -11376,7 +11372,7 @@
         <v>-4.0486500000000002E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>402883</v>
       </c>
@@ -11390,7 +11386,7 @@
         <v>-4.0675700000000002E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>404757</v>
       </c>
@@ -11404,7 +11400,7 @@
         <v>-4.0864900000000003E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>406631</v>
       </c>
@@ -11418,7 +11414,7 @@
         <v>-4.1054100000000003E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>408505</v>
       </c>
@@ -11432,7 +11428,7 @@
         <v>-4.1243200000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>410378</v>
       </c>
@@ -11446,7 +11442,7 @@
         <v>-4.1432400000000001E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>412252</v>
       </c>
@@ -11460,7 +11456,7 @@
         <v>-4.1621600000000002E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>414126</v>
       </c>
@@ -11474,7 +11470,7 @@
         <v>-4.1810800000000002E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>416000</v>
       </c>
@@ -11488,7 +11484,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>417874</v>
       </c>
@@ -11502,7 +11498,7 @@
         <v>-4.2189200000000003E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>419748</v>
       </c>
@@ -11516,7 +11512,7 @@
         <v>-4.2378399999999997E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>421622</v>
       </c>
@@ -11530,7 +11526,7 @@
         <v>-4.2567599999999997E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>423495</v>
       </c>
@@ -11544,7 +11540,7 @@
         <v>-4.2756799999999998E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>425369</v>
       </c>
@@ -11558,7 +11554,7 @@
         <v>-4.2945900000000002E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>427243</v>
       </c>
@@ -11572,7 +11568,7 @@
         <v>-4.3135100000000003E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>429117</v>
       </c>
@@ -11586,7 +11582,7 @@
         <v>-4.3324300000000003E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>430991</v>
       </c>
@@ -11600,7 +11596,7 @@
         <v>-4.3513499999999997E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>432865</v>
       </c>
@@ -11614,7 +11610,7 @@
         <v>-4.3702699999999997E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>434739</v>
       </c>
@@ -11628,7 +11624,7 @@
         <v>-4.3891899999999998E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>436613</v>
       </c>
@@ -11642,7 +11638,7 @@
         <v>-4.4081099999999998E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>438486</v>
       </c>
@@ -11656,7 +11652,7 @@
         <v>-4.4270299999999999E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>440360</v>
       </c>
@@ -11670,7 +11666,7 @@
         <v>-4.4459499999999999E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>442234</v>
       </c>
@@ -11684,7 +11680,7 @@
         <v>-4.4648599999999997E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>444108</v>
       </c>
@@ -11698,7 +11694,7 @@
         <v>-4.4837799999999997E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>445982</v>
       </c>
@@ -11712,7 +11708,7 @@
         <v>-4.5026999999999998E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>447856</v>
       </c>
@@ -11726,7 +11722,7 @@
         <v>-4.5216199999999998E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>449730</v>
       </c>
@@ -11740,7 +11736,7 @@
         <v>-4.5405399999999999E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>451604</v>
       </c>
@@ -11754,7 +11750,7 @@
         <v>-4.5594599999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>453477</v>
       </c>
@@ -11768,7 +11764,7 @@
         <v>-4.5783799999999999E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>455351</v>
       </c>
@@ -11782,7 +11778,7 @@
         <v>-4.5973E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>457225</v>
       </c>
@@ -11796,7 +11792,7 @@
         <v>-4.61622E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>459099</v>
       </c>
@@ -11810,7 +11806,7 @@
         <v>-4.6351400000000001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>460973</v>
       </c>
@@ -11824,7 +11820,7 @@
         <v>-4.6540499999999999E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>462847</v>
       </c>
@@ -11838,7 +11834,7 @@
         <v>-4.6729699999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>464721</v>
       </c>
@@ -11852,7 +11848,7 @@
         <v>-4.6918899999999999E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>466595</v>
       </c>
@@ -11866,7 +11862,7 @@
         <v>-4.71081E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>468468</v>
       </c>
@@ -11880,7 +11876,7 @@
         <v>-4.72973E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>470342</v>
       </c>
@@ -11894,7 +11890,7 @@
         <v>-4.7486500000000001E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>472216</v>
       </c>
@@ -11908,7 +11904,7 @@
         <v>-4.7675700000000001E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>474090</v>
       </c>
@@ -11922,7 +11918,7 @@
         <v>-4.7864900000000002E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>475964</v>
       </c>
@@ -11936,7 +11932,7 @@
         <v>-4.8054100000000002E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>477838</v>
       </c>
@@ -11950,7 +11946,7 @@
         <v>-4.82432E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>479712</v>
       </c>
@@ -11964,7 +11960,7 @@
         <v>-4.84324E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>481586</v>
       </c>
@@ -11978,7 +11974,7 @@
         <v>-4.8621600000000001E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>483459</v>
       </c>
@@ -11992,7 +11988,7 @@
         <v>-4.8810800000000001E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>485333</v>
       </c>
@@ -12006,7 +12002,7 @@
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>487207</v>
       </c>
@@ -12020,7 +12016,7 @@
         <v>-4.9189200000000002E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>489081</v>
       </c>
@@ -12034,7 +12030,7 @@
         <v>-4.9378400000000003E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>490955</v>
       </c>
@@ -12048,7 +12044,7 @@
         <v>-4.9567600000000003E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>492829</v>
       </c>
@@ -12062,7 +12058,7 @@
         <v>-4.9756799999999997E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>494703</v>
       </c>
@@ -12076,7 +12072,7 @@
         <v>-4.9945900000000001E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>496577</v>
       </c>
@@ -12090,7 +12086,7 @@
         <v>-5.0135100000000002E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>498450</v>
       </c>
@@ -12104,7 +12100,7 @@
         <v>-5.0324300000000002E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>500324</v>
       </c>
@@ -12118,7 +12114,7 @@
         <v>-5.0513500000000003E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>502198</v>
       </c>
@@ -12132,7 +12128,7 @@
         <v>-5.0702700000000003E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>504072</v>
       </c>
@@ -12146,7 +12142,7 @@
         <v>-5.0891899999999997E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>505946</v>
       </c>
@@ -12160,7 +12156,7 @@
         <v>-5.1081099999999997E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>507820</v>
       </c>
@@ -12174,7 +12170,7 @@
         <v>-5.1270299999999998E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>509694</v>
       </c>
@@ -12188,7 +12184,7 @@
         <v>-5.1459499999999998E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>511568</v>
       </c>
@@ -12202,7 +12198,7 @@
         <v>-5.1648600000000003E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>513441</v>
       </c>
@@ -12216,7 +12212,7 @@
         <v>-5.1837800000000003E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>515315</v>
       </c>
@@ -12230,7 +12226,7 @@
         <v>-5.2026999999999997E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>517189</v>
       </c>
@@ -12244,7 +12240,7 @@
         <v>-5.2216199999999997E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>519063</v>
       </c>
@@ -12258,7 +12254,7 @@
         <v>-5.2405399999999998E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>520937</v>
       </c>
@@ -12272,7 +12268,7 @@
         <v>-5.2594599999999998E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>522811</v>
       </c>
@@ -12286,7 +12282,7 @@
         <v>-5.2783799999999999E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>524685</v>
       </c>
@@ -12300,7 +12296,7 @@
         <v>-5.2972999999999999E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>526559</v>
       </c>
@@ -12314,7 +12310,7 @@
         <v>-5.31622E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>528432</v>
       </c>
@@ -12328,7 +12324,7 @@
         <v>-5.33514E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>530306</v>
       </c>
@@ -12342,7 +12338,7 @@
         <v>-5.3540499999999998E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>532180</v>
       </c>
@@ -12356,7 +12352,7 @@
         <v>-5.3729699999999998E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>534054</v>
       </c>
@@ -12370,7 +12366,7 @@
         <v>-5.3918899999999999E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>535928</v>
       </c>
@@ -12384,7 +12380,7 @@
         <v>-5.4108099999999999E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>537802</v>
       </c>
@@ -12398,7 +12394,7 @@
         <v>-5.42973E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>539676</v>
       </c>
@@ -12412,7 +12408,7 @@
         <v>-5.44865E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>541550</v>
       </c>
@@ -12426,7 +12422,7 @@
         <v>-5.4675700000000001E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>543423</v>
       </c>
@@ -12440,7 +12436,7 @@
         <v>-5.4864900000000001E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>545297</v>
       </c>
@@ -12454,7 +12450,7 @@
         <v>-5.5054100000000002E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>547171</v>
       </c>
@@ -12468,7 +12464,7 @@
         <v>-5.5243199999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>549045</v>
       </c>
@@ -12482,7 +12478,7 @@
         <v>-5.54324E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>550919</v>
       </c>
@@ -12496,7 +12492,7 @@
         <v>-5.56216E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>552793</v>
       </c>
@@ -12510,7 +12506,7 @@
         <v>-5.5810800000000001E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>554667</v>
       </c>
@@ -12524,7 +12520,7 @@
         <v>-5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>556541</v>
       </c>
@@ -12538,7 +12534,7 @@
         <v>-5.6189200000000002E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>558414</v>
       </c>
@@ -12552,7 +12548,7 @@
         <v>-5.6378400000000002E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>560288</v>
       </c>
@@ -12566,7 +12562,7 @@
         <v>-5.6567600000000003E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>562162</v>
       </c>
@@ -12580,7 +12576,7 @@
         <v>-5.6756800000000003E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>564036</v>
       </c>
@@ -12594,7 +12590,7 @@
         <v>-5.6945900000000001E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>565910</v>
       </c>
@@ -12608,7 +12604,7 @@
         <v>-5.7135100000000001E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>567784</v>
       </c>
@@ -12622,7 +12618,7 @@
         <v>-5.7324300000000002E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>569658</v>
       </c>
@@ -12636,7 +12632,7 @@
         <v>-5.7513500000000002E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>571532</v>
       </c>
@@ -12650,7 +12646,7 @@
         <v>-5.7702700000000003E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>573405</v>
       </c>
@@ -12664,7 +12660,7 @@
         <v>-5.7891900000000003E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>575279</v>
       </c>
@@ -12678,7 +12674,7 @@
         <v>-5.8081099999999997E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>577153</v>
       </c>
@@ -12692,7 +12688,7 @@
         <v>-5.8270299999999997E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>579027</v>
       </c>
@@ -12706,7 +12702,7 @@
         <v>-5.8459499999999998E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>580901</v>
       </c>
@@ -12720,7 +12716,7 @@
         <v>-5.8648600000000002E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>582775</v>
       </c>
@@ -12734,7 +12730,7 @@
         <v>-5.8837800000000003E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>584649</v>
       </c>
@@ -12748,7 +12744,7 @@
         <v>-5.9027000000000003E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>586523</v>
       </c>
@@ -12762,7 +12758,7 @@
         <v>-5.9216199999999997E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>588396</v>
       </c>
@@ -12776,7 +12772,7 @@
         <v>-5.9405399999999997E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>590270</v>
       </c>
@@ -12790,7 +12786,7 @@
         <v>-5.9594599999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>592144</v>
       </c>
@@ -12804,7 +12800,7 @@
         <v>-5.9783799999999998E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>594018</v>
       </c>
@@ -12818,7 +12814,7 @@
         <v>-5.9972999999999999E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>595892</v>
       </c>
@@ -12832,7 +12828,7 @@
         <v>-6.0162199999999999E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>597766</v>
       </c>
@@ -12846,7 +12842,7 @@
         <v>-6.0351399999999999E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>599640</v>
       </c>
@@ -12860,7 +12856,7 @@
         <v>-6.0540499999999997E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>601514</v>
       </c>
@@ -12874,7 +12870,7 @@
         <v>-6.0729699999999998E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>603387</v>
       </c>
@@ -12888,7 +12884,7 @@
         <v>-6.0918899999999998E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>605261</v>
       </c>
@@ -12902,7 +12898,7 @@
         <v>-6.1108099999999999E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>607135</v>
       </c>
@@ -12916,7 +12912,7 @@
         <v>-6.1297299999999999E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>609009</v>
       </c>
@@ -12930,7 +12926,7 @@
         <v>-6.1486499999999999E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>610883</v>
       </c>
@@ -12944,7 +12940,7 @@
         <v>-6.16757E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>612757</v>
       </c>
@@ -12958,7 +12954,7 @@
         <v>-6.18649E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>614631</v>
       </c>
@@ -12972,7 +12968,7 @@
         <v>-6.2054100000000001E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>616505</v>
       </c>
@@ -12986,7 +12982,7 @@
         <v>-6.2243199999999999E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>618378</v>
       </c>
@@ -13000,7 +12996,7 @@
         <v>-6.2432399999999999E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>620252</v>
       </c>
@@ -13014,7 +13010,7 @@
         <v>-6.2621599999999999E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>622126</v>
       </c>
@@ -13028,7 +13024,7 @@
         <v>-6.28108E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>624000</v>
       </c>
@@ -13042,7 +13038,7 @@
         <v>-6.3E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>625874</v>
       </c>
@@ -13056,7 +13052,7 @@
         <v>-6.3189200000000001E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>627748</v>
       </c>
@@ -13070,7 +13066,7 @@
         <v>-6.3378400000000001E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>629622</v>
       </c>
@@ -13084,7 +13080,7 @@
         <v>-6.3567600000000002E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>631495</v>
       </c>
@@ -13098,7 +13094,7 @@
         <v>-6.3756800000000002E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>633369</v>
       </c>
@@ -13112,7 +13108,7 @@
         <v>-6.39459E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>635243</v>
       </c>
@@ -13126,7 +13122,7 @@
         <v>-6.41351E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>637117</v>
       </c>
@@ -13140,7 +13136,7 @@
         <v>-6.4324300000000001E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>638991</v>
       </c>
@@ -13154,7 +13150,7 @@
         <v>-6.4513500000000001E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>640865</v>
       </c>
@@ -13168,7 +13164,7 @@
         <v>-6.4702700000000002E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>642739</v>
       </c>
@@ -13182,7 +13178,7 @@
         <v>-6.4891900000000002E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>644613</v>
       </c>
@@ -13196,7 +13192,7 @@
         <v>-6.5081100000000003E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>646486</v>
       </c>
@@ -13210,7 +13206,7 @@
         <v>-6.5270300000000003E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>648360</v>
       </c>
@@ -13224,7 +13220,7 @@
         <v>-6.5459500000000004E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>650234</v>
       </c>
@@ -13238,7 +13234,7 @@
         <v>-6.5648600000000001E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>652108</v>
       </c>
@@ -13252,7 +13248,7 @@
         <v>-6.5837800000000002E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>653982</v>
       </c>
@@ -13266,7 +13262,7 @@
         <v>-6.6027000000000002E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>655856</v>
       </c>
@@ -13280,7 +13276,7 @@
         <v>-6.6216200000000003E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>657730</v>
       </c>
@@ -13294,7 +13290,7 @@
         <v>-6.6405400000000003E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>659604</v>
       </c>
@@ -13308,7 +13304,7 @@
         <v>-6.6594600000000004E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>661477</v>
       </c>
@@ -13322,7 +13318,7 @@
         <v>-6.6783800000000004E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>663351</v>
       </c>
@@ -13336,7 +13332,7 @@
         <v>-6.6973000000000005E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>665225</v>
       </c>
@@ -13350,7 +13346,7 @@
         <v>-6.7162200000000005E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>667099</v>
       </c>
@@ -13364,7 +13360,7 @@
         <v>-6.7351400000000006E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>668973</v>
       </c>
@@ -13378,7 +13374,7 @@
         <v>-6.7540500000000003E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>670847</v>
       </c>
@@ -13392,7 +13388,7 @@
         <v>-6.7729700000000004E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>672721</v>
       </c>
@@ -13406,7 +13402,7 @@
         <v>-6.7918900000000004E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>674595</v>
       </c>
@@ -13420,7 +13416,7 @@
         <v>-6.8108100000000005E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>676468</v>
       </c>
@@ -13434,7 +13430,7 @@
         <v>-6.8297300000000005E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>678342</v>
       </c>
@@ -13448,7 +13444,7 @@
         <v>-6.8486500000000006E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>680216</v>
       </c>
@@ -13462,7 +13458,7 @@
         <v>-6.8675700000000006E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>682090</v>
       </c>
@@ -13476,7 +13472,7 @@
         <v>-6.8864900000000007E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>683964</v>
       </c>
@@ -13490,7 +13486,7 @@
         <v>-6.9054099999999993E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>685838</v>
       </c>
@@ -13504,7 +13500,7 @@
         <v>-6.9243200000000005E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>687712</v>
       </c>
@@ -13518,7 +13514,7 @@
         <v>-6.9432400000000005E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>689586</v>
       </c>
@@ -13532,7 +13528,7 @@
         <v>-6.9621600000000006E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>691459</v>
       </c>
@@ -13546,7 +13542,7 @@
         <v>-6.9810800000000006E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>693333</v>
       </c>
@@ -13560,7 +13556,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>695207</v>
       </c>
@@ -13574,7 +13570,7 @@
         <v>-7.0189199999999993E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>697081</v>
       </c>
@@ -13588,7 +13584,7 @@
         <v>-7.0378399999999994E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>698955</v>
       </c>
@@ -13602,7 +13598,7 @@
         <v>-7.0567599999999994E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>700829</v>
       </c>
@@ -13616,7 +13612,7 @@
         <v>-7.0756799999999995E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>702703</v>
       </c>
@@ -13630,7 +13626,7 @@
         <v>-7.0945900000000006E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>704577</v>
       </c>
@@ -13644,7 +13640,7 @@
         <v>-7.1135100000000007E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>706450</v>
       </c>
@@ -13658,7 +13654,7 @@
         <v>-7.1324299999999993E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>708324</v>
       </c>
@@ -13672,7 +13668,7 @@
         <v>-7.1513499999999994E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>710198</v>
       </c>
@@ -13686,7 +13682,7 @@
         <v>-7.1702699999999994E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>712072</v>
       </c>
@@ -13700,7 +13696,7 @@
         <v>-7.1891899999999995E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>713946</v>
       </c>
@@ -13714,7 +13710,7 @@
         <v>-7.2081099999999995E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>715820</v>
       </c>
@@ -13728,7 +13724,7 @@
         <v>-7.2270299999999996E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>717694</v>
       </c>
@@ -13742,7 +13738,7 @@
         <v>-7.2459499999999996E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>719568</v>
       </c>
@@ -13756,7 +13752,7 @@
         <v>-7.2648599999999994E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>721441</v>
       </c>
@@ -13770,7 +13766,7 @@
         <v>-7.2837799999999994E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>723315</v>
       </c>
@@ -13784,7 +13780,7 @@
         <v>-7.3026999999999995E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>725189</v>
       </c>
@@ -13798,7 +13794,7 @@
         <v>-7.3216199999999995E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>727063</v>
       </c>
@@ -13812,7 +13808,7 @@
         <v>-7.3405399999999996E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>728937</v>
       </c>
@@ -13826,7 +13822,7 @@
         <v>-7.3594599999999996E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>730811</v>
       </c>
@@ -13840,7 +13836,7 @@
         <v>-7.3783799999999997E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>732685</v>
       </c>
@@ -13854,7 +13850,7 @@
         <v>-7.3972999999999997E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>734559</v>
       </c>
@@ -13868,7 +13864,7 @@
         <v>-7.4162199999999998E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>736432</v>
       </c>
@@ -13882,7 +13878,7 @@
         <v>-7.4351399999999998E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>738306</v>
       </c>
@@ -13896,7 +13892,7 @@
         <v>-7.4540499999999996E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>740180</v>
       </c>
@@ -13910,7 +13906,7 @@
         <v>-7.4729699999999996E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>742054</v>
       </c>
@@ -13924,7 +13920,7 @@
         <v>-7.4918899999999997E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>743928</v>
       </c>
@@ -13938,7 +13934,7 @@
         <v>-7.5108099999999997E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>745802</v>
       </c>
@@ -13952,7 +13948,7 @@
         <v>-7.5297299999999998E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>747676</v>
       </c>
@@ -13966,7 +13962,7 @@
         <v>-7.5486499999999998E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>749550</v>
       </c>
@@ -13980,7 +13976,7 @@
         <v>-7.5675699999999999E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>751423</v>
       </c>
@@ -13994,7 +13990,7 @@
         <v>-7.5864899999999999E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>753297</v>
       </c>
@@ -14008,7 +14004,7 @@
         <v>-7.6054099999999999E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>755171</v>
       </c>
@@ -14022,7 +14018,7 @@
         <v>-7.6243199999999997E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>757045</v>
       </c>
@@ -14036,7 +14032,7 @@
         <v>-7.6432399999999998E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>758919</v>
       </c>
@@ -14050,7 +14046,7 @@
         <v>-7.6621599999999998E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>760793</v>
       </c>
@@ -14064,7 +14060,7 @@
         <v>-7.6810799999999999E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>762667</v>
       </c>
@@ -14078,7 +14074,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>764541</v>
       </c>
@@ -14092,7 +14088,7 @@
         <v>-7.7189199999999999E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>766414</v>
       </c>
@@ -14106,7 +14102,7 @@
         <v>-7.73784E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>768288</v>
       </c>
@@ -14120,7 +14116,7 @@
         <v>-7.75676E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>770162</v>
       </c>
@@ -14134,7 +14130,7 @@
         <v>-7.7756800000000001E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>772036</v>
       </c>
@@ -14148,7 +14144,7 @@
         <v>-7.7945899999999999E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>773910</v>
       </c>
@@ -14162,7 +14158,7 @@
         <v>-7.8135099999999999E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>775784</v>
       </c>
@@ -14176,7 +14172,7 @@
         <v>-7.8324299999999999E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>777658</v>
       </c>
@@ -14190,7 +14186,7 @@
         <v>-7.85135E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>779532</v>
       </c>
@@ -14204,7 +14200,7 @@
         <v>-7.87027E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>781405</v>
       </c>
@@ -14218,7 +14214,7 @@
         <v>-7.8891900000000001E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>783279</v>
       </c>
@@ -14232,7 +14228,7 @@
         <v>-7.9081100000000001E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>785153</v>
       </c>
@@ -14246,7 +14242,7 @@
         <v>-7.9270300000000002E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>787027</v>
       </c>
@@ -14260,7 +14256,7 @@
         <v>-7.9459500000000002E-2</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>788901</v>
       </c>
@@ -14274,7 +14270,7 @@
         <v>-7.96486E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>790775</v>
       </c>
@@ -14288,7 +14284,7 @@
         <v>-7.98378E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>792649</v>
       </c>
@@ -14302,7 +14298,7 @@
         <v>-8.0027000000000001E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>794523</v>
       </c>
@@ -14316,7 +14312,7 @@
         <v>-8.0216200000000001E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>796396</v>
       </c>
@@ -14330,7 +14326,7 @@
         <v>-8.0405400000000002E-2</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>798270</v>
       </c>
@@ -14344,7 +14340,7 @@
         <v>-8.0594600000000002E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>800144</v>
       </c>
@@ -14358,7 +14354,7 @@
         <v>-8.0783800000000003E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>802018</v>
       </c>
@@ -14372,7 +14368,7 @@
         <v>-8.0973000000000003E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>803892</v>
       </c>
@@ -14386,7 +14382,7 @@
         <v>-8.1162200000000004E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>805766</v>
       </c>
@@ -14400,7 +14396,7 @@
         <v>-8.1351400000000004E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>807640</v>
       </c>
@@ -14414,7 +14410,7 @@
         <v>-8.1540500000000002E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>809514</v>
       </c>
@@ -14428,7 +14424,7 @@
         <v>-8.1729700000000002E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>811387</v>
       </c>
@@ -14442,7 +14438,7 @@
         <v>-8.1918900000000003E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>813261</v>
       </c>
@@ -14456,7 +14452,7 @@
         <v>-8.2108100000000003E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>815135</v>
       </c>
@@ -14470,7 +14466,7 @@
         <v>-8.2297300000000004E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>817009</v>
       </c>
@@ -14484,7 +14480,7 @@
         <v>-8.2486500000000004E-2</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>818883</v>
       </c>
@@ -14498,7 +14494,7 @@
         <v>-8.2675700000000005E-2</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>820757</v>
       </c>
@@ -14512,7 +14508,7 @@
         <v>-8.2864900000000005E-2</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>822631</v>
       </c>
@@ -14526,7 +14522,7 @@
         <v>-8.3054100000000006E-2</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>824505</v>
       </c>
@@ -14540,7 +14536,7 @@
         <v>-8.3243200000000003E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>826378</v>
       </c>
@@ -14554,7 +14550,7 @@
         <v>-8.3432400000000004E-2</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>828252</v>
       </c>
@@ -14568,7 +14564,7 @@
         <v>-8.3621600000000004E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>830126</v>
       </c>
@@ -14582,7 +14578,7 @@
         <v>-8.3810800000000005E-2</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>832000</v>
       </c>
@@ -14596,7 +14592,7 @@
         <v>-8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>833874</v>
       </c>
@@ -14610,7 +14606,7 @@
         <v>-8.4189200000000006E-2</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>835748</v>
       </c>
@@ -14624,7 +14620,7 @@
         <v>-8.4378400000000006E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>837622</v>
       </c>
@@ -14638,7 +14634,7 @@
         <v>-8.4567600000000007E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>839495</v>
       </c>
@@ -14652,7 +14648,7 @@
         <v>-8.4756799999999993E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>841369</v>
       </c>
@@ -14666,7 +14662,7 @@
         <v>-8.4945900000000005E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>843243</v>
       </c>
@@ -14680,7 +14676,7 @@
         <v>-8.5135100000000005E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>845117</v>
       </c>
@@ -14694,7 +14690,7 @@
         <v>-8.5324300000000006E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>846991</v>
       </c>
@@ -14708,7 +14704,7 @@
         <v>-8.5513500000000006E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>848865</v>
       </c>
@@ -14722,7 +14718,7 @@
         <v>-8.5702700000000007E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>850739</v>
       </c>
@@ -14736,7 +14732,7 @@
         <v>-8.5891899999999993E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>852613</v>
       </c>
@@ -14750,7 +14746,7 @@
         <v>-8.6081099999999994E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>854486</v>
       </c>
@@ -14764,7 +14760,7 @@
         <v>-8.6270299999999994E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>856360</v>
       </c>
@@ -14778,7 +14774,7 @@
         <v>-8.6459499999999995E-2</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>858234</v>
       </c>
@@ -14792,7 +14788,7 @@
         <v>-8.6648600000000006E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>860108</v>
       </c>
@@ -14806,7 +14802,7 @@
         <v>-8.6837800000000007E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>861982</v>
       </c>
@@ -14820,7 +14816,7 @@
         <v>-8.7026999999999993E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>863856</v>
       </c>
@@ -14834,7 +14830,7 @@
         <v>-8.7216199999999994E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>865730</v>
       </c>
@@ -14848,7 +14844,7 @@
         <v>-8.7405399999999994E-2</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>867604</v>
       </c>
@@ -14862,7 +14858,7 @@
         <v>-8.7594599999999995E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>869477</v>
       </c>
@@ -14876,7 +14872,7 @@
         <v>-8.7783799999999995E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>871351</v>
       </c>
@@ -14890,7 +14886,7 @@
         <v>-8.7972999999999996E-2</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>873225</v>
       </c>
@@ -14904,7 +14900,7 @@
         <v>-8.8162199999999996E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>875099</v>
       </c>
@@ -14918,7 +14914,7 @@
         <v>-8.8351399999999997E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>876973</v>
       </c>
@@ -14932,7 +14928,7 @@
         <v>-8.8540499999999994E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>878847</v>
       </c>
@@ -14946,7 +14942,7 @@
         <v>-8.8729699999999995E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>880721</v>
       </c>
@@ -14960,7 +14956,7 @@
         <v>-8.8918899999999995E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>882595</v>
       </c>
@@ -14974,7 +14970,7 @@
         <v>-8.9108099999999996E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>884468</v>
       </c>
@@ -14988,7 +14984,7 @@
         <v>-8.9297299999999996E-2</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>886342</v>
       </c>
@@ -15002,7 +14998,7 @@
         <v>-8.9486499999999997E-2</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>888216</v>
       </c>
@@ -15016,7 +15012,7 @@
         <v>-8.9675699999999997E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>890090</v>
       </c>
@@ -15030,7 +15026,7 @@
         <v>-8.9864899999999998E-2</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>891964</v>
       </c>
@@ -15044,7 +15040,7 @@
         <v>-9.0054099999999998E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>893838</v>
       </c>
@@ -15058,7 +15054,7 @@
         <v>-9.0243199999999996E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>895712</v>
       </c>
@@ -15072,7 +15068,7 @@
         <v>-9.0432399999999996E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>897586</v>
       </c>
@@ -15086,7 +15082,7 @@
         <v>-9.0621599999999997E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>899459</v>
       </c>
@@ -15100,7 +15096,7 @@
         <v>-9.0810799999999997E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>901333</v>
       </c>
@@ -15114,7 +15110,7 @@
         <v>-9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>903207</v>
       </c>
@@ -15128,7 +15124,7 @@
         <v>-9.1189199999999998E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>905081</v>
       </c>
@@ -15142,7 +15138,7 @@
         <v>-9.1378399999999999E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>906955</v>
       </c>
@@ -15156,7 +15152,7 @@
         <v>-9.1567599999999999E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>908829</v>
       </c>
@@ -15170,7 +15166,7 @@
         <v>-9.1756799999999999E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>910703</v>
       </c>
@@ -15184,7 +15180,7 @@
         <v>-9.1945899999999997E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>912577</v>
       </c>
@@ -15198,7 +15194,7 @@
         <v>-9.2135099999999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>914450</v>
       </c>
@@ -15212,7 +15208,7 @@
         <v>-9.2324299999999998E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>916324</v>
       </c>
@@ -15226,7 +15222,7 @@
         <v>-9.2513499999999999E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>918198</v>
       </c>
@@ -15240,7 +15236,7 @@
         <v>-9.2702699999999999E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>920072</v>
       </c>
@@ -15254,7 +15250,7 @@
         <v>-9.2891899999999999E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>921946</v>
       </c>
@@ -15268,7 +15264,7 @@
         <v>-9.30811E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>923820</v>
       </c>
@@ -15282,7 +15278,7 @@
         <v>-9.32703E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>925694</v>
       </c>
@@ -15296,7 +15292,7 @@
         <v>-9.3459500000000001E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>927568</v>
       </c>
@@ -15310,7 +15306,7 @@
         <v>-9.3648599999999999E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>929441</v>
       </c>
@@ -15324,7 +15320,7 @@
         <v>-9.3837799999999999E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>931315</v>
       </c>
@@ -15338,7 +15334,7 @@
         <v>-9.4026999999999999E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>933189</v>
       </c>
@@ -15352,7 +15348,7 @@
         <v>-9.42162E-2</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>935063</v>
       </c>
@@ -15366,7 +15362,7 @@
         <v>-9.44054E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>936937</v>
       </c>
@@ -15393,7 +15389,7 @@
   <dimension ref="A1:D510"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15401,7 +15397,7 @@
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>0.1</v>
       </c>
@@ -15415,7 +15411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -15429,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.3</v>
       </c>
@@ -15443,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.4</v>
       </c>
@@ -15457,7 +15453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.5</v>
       </c>
@@ -15471,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.6</v>
       </c>
@@ -15485,7 +15481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.7</v>
       </c>
@@ -15499,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.8</v>
       </c>
@@ -15513,7 +15509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.9</v>
       </c>
@@ -15527,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -15541,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1873.87</v>
       </c>
@@ -15555,7 +15551,7 @@
         <v>-2.43243E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3747.75</v>
       </c>
@@ -15569,7 +15565,7 @@
         <v>-4.86486E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5621.62</v>
       </c>
@@ -15583,7 +15579,7 @@
         <v>-7.2973000000000005E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7495.5</v>
       </c>
@@ -15597,7 +15593,7 @@
         <v>-9.7297300000000002E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>9369.3700000000008</v>
       </c>
@@ -15611,7 +15607,7 @@
         <v>-1.2162200000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11243.2</v>
       </c>
@@ -15625,7 +15621,7 @@
         <v>-1.4594600000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13117.1</v>
       </c>
@@ -15639,7 +15635,7 @@
         <v>-1.7026999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14991</v>
       </c>
@@ -15653,7 +15649,7 @@
         <v>-1.9459499999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16864.900000000001</v>
       </c>
@@ -15667,7 +15663,7 @@
         <v>-2.1891900000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18738.7</v>
       </c>
@@ -15681,7 +15677,7 @@
         <v>-2.4324300000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20612.599999999999</v>
       </c>
@@ -15695,7 +15691,7 @@
         <v>-2.6756800000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22486.5</v>
       </c>
@@ -15709,7 +15705,7 @@
         <v>-2.9189200000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>24360.400000000001</v>
       </c>
@@ -15723,7 +15719,7 @@
         <v>-3.1621599999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>26234.2</v>
       </c>
@@ -15737,7 +15733,7 @@
         <v>-3.4054100000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>28108.1</v>
       </c>
@@ -15751,7 +15747,7 @@
         <v>-3.6486499999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>29982</v>
       </c>
@@ -15765,7 +15761,7 @@
         <v>-3.8918899999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>31855.9</v>
       </c>
@@ -15779,7 +15775,7 @@
         <v>-4.1351399999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>33729.699999999997</v>
       </c>
@@ -15793,7 +15789,7 @@
         <v>-4.3783800000000003E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>35603.599999999999</v>
       </c>
@@ -15807,7 +15803,7 @@
         <v>-4.6216199999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37477.5</v>
       </c>
@@ -15821,7 +15817,7 @@
         <v>-4.8648600000000004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>39351.4</v>
       </c>
@@ -15835,7 +15831,7 @@
         <v>-5.1081099999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>41225.199999999997</v>
       </c>
@@ -15849,7 +15845,7 @@
         <v>-5.3513500000000004E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43099.1</v>
       </c>
@@ -15863,7 +15859,7 @@
         <v>-5.59459E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44973</v>
       </c>
@@ -15877,7 +15873,7 @@
         <v>-5.8378400000000004E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46846.8</v>
       </c>
@@ -15891,7 +15887,7 @@
         <v>-6.08108E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>48720.7</v>
       </c>
@@ -15905,7 +15901,7 @@
         <v>-6.3243199999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>50594.6</v>
       </c>
@@ -15919,7 +15915,7 @@
         <v>-6.56757E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>52468.5</v>
       </c>
@@ -15933,7 +15929,7 @@
         <v>-6.8108099999999996E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>54342.3</v>
       </c>
@@ -15947,7 +15943,7 @@
         <v>-7.0540500000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>56216.2</v>
       </c>
@@ -15961,7 +15957,7 @@
         <v>-7.2972999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>58090.1</v>
       </c>
@@ -15975,7 +15971,7 @@
         <v>-7.5405400000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>59964</v>
       </c>
@@ -15989,7 +15985,7 @@
         <v>-7.7837799999999997E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>61837.8</v>
       </c>
@@ -16003,7 +15999,7 @@
         <v>-8.0270299999999992E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>63711.7</v>
       </c>
@@ -16017,7 +16013,7 @@
         <v>-8.2702699999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>65585.600000000006</v>
       </c>
@@ -16031,7 +16027,7 @@
         <v>-8.5135100000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>67459.5</v>
       </c>
@@ -16045,7 +16041,7 @@
         <v>-8.7567600000000006E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>69333.3</v>
       </c>
@@ -16059,7 +16055,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>71207.199999999997</v>
       </c>
@@ -16073,7 +16069,7 @@
         <v>-9.2432399999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>73081.100000000006</v>
       </c>
@@ -16087,7 +16083,7 @@
         <v>-9.4864900000000002E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>74955</v>
       </c>
@@ -16101,7 +16097,7 @@
         <v>-9.7297300000000007E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>76828.800000000003</v>
       </c>
@@ -16115,7 +16111,7 @@
         <v>-9.9729699999999994E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>78702.7</v>
       </c>
@@ -16129,7 +16125,7 @@
         <v>-1.02162E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>80576.600000000006</v>
       </c>
@@ -16143,7 +16139,7 @@
         <v>-1.04595E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>82450.5</v>
       </c>
@@ -16157,7 +16153,7 @@
         <v>-1.0702700000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>84324.3</v>
       </c>
@@ -16171,7 +16167,7 @@
         <v>-1.09459E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>86198.2</v>
       </c>
@@ -16185,7 +16181,7 @@
         <v>-1.11892E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>88072.1</v>
       </c>
@@ -16199,7 +16195,7 @@
         <v>-1.1432400000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>89945.9</v>
       </c>
@@ -16213,7 +16209,7 @@
         <v>-1.1675700000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>91819.8</v>
       </c>
@@ -16227,7 +16223,7 @@
         <v>-1.19189E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>93693.7</v>
       </c>
@@ -16241,7 +16237,7 @@
         <v>-1.21622E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>95567.6</v>
       </c>
@@ -16255,7 +16251,7 @@
         <v>-1.24054E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>97441.4</v>
       </c>
@@ -16269,7 +16265,7 @@
         <v>-1.2648599999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>99315.3</v>
       </c>
@@ -16283,7 +16279,7 @@
         <v>-1.28919E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>101189</v>
       </c>
@@ -16297,7 +16293,7 @@
         <v>-1.31351E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>103063</v>
       </c>
@@ -16311,7 +16307,7 @@
         <v>-1.33784E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>104937</v>
       </c>
@@ -16325,7 +16321,7 @@
         <v>-1.3621599999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>106811</v>
       </c>
@@ -16339,7 +16335,7 @@
         <v>-1.3864899999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>108685</v>
       </c>
@@ -16353,7 +16349,7 @@
         <v>-1.41081E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>110559</v>
       </c>
@@ -16367,7 +16363,7 @@
         <v>-1.43514E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>112432</v>
       </c>
@@ -16381,7 +16377,7 @@
         <v>-1.4594599999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>114306</v>
       </c>
@@ -16395,7 +16391,7 @@
         <v>-1.48378E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>116180</v>
       </c>
@@ -16409,7 +16405,7 @@
         <v>-1.50811E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>118054</v>
       </c>
@@ -16423,7 +16419,7 @@
         <v>-1.5324300000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>119928</v>
       </c>
@@ -16437,7 +16433,7 @@
         <v>-1.5567599999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>121802</v>
       </c>
@@ -16451,7 +16447,7 @@
         <v>-1.58108E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>123676</v>
       </c>
@@ -16465,7 +16461,7 @@
         <v>-1.6054100000000002E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>125550</v>
       </c>
@@ -16479,7 +16475,7 @@
         <v>-1.6297300000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>127423</v>
       </c>
@@ -16493,7 +16489,7 @@
         <v>-1.65405E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>129297</v>
       </c>
@@ -16507,7 +16503,7 @@
         <v>-1.6783800000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>131171</v>
       </c>
@@ -16521,7 +16517,7 @@
         <v>-1.7027E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>133045</v>
       </c>
@@ -16535,7 +16531,7 @@
         <v>-1.7270299999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>134919</v>
       </c>
@@ -16549,7 +16545,7 @@
         <v>-1.7513500000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>136793</v>
       </c>
@@ -16563,7 +16559,7 @@
         <v>-1.77568E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>138667</v>
       </c>
@@ -16577,7 +16573,7 @@
         <v>-1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>140541</v>
       </c>
@@ -16591,7 +16587,7 @@
         <v>-1.8243200000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>142414</v>
       </c>
@@ -16605,7 +16601,7 @@
         <v>-1.8486499999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>144288</v>
       </c>
@@ -16619,7 +16615,7 @@
         <v>-1.8729699999999998E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>146162</v>
       </c>
@@ -16633,7 +16629,7 @@
         <v>-1.8973E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>148036</v>
       </c>
@@ -16647,7 +16643,7 @@
         <v>-1.9216199999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>149910</v>
       </c>
@@ -16661,7 +16657,7 @@
         <v>-1.9459500000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>151784</v>
       </c>
@@ -16675,7 +16671,7 @@
         <v>-1.97027E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>153658</v>
       </c>
@@ -16689,7 +16685,7 @@
         <v>-1.9945899999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>155532</v>
       </c>
@@ -16703,7 +16699,7 @@
         <v>-2.0189200000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>157405</v>
       </c>
@@ -16717,7 +16713,7 @@
         <v>-2.04324E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>159279</v>
       </c>
@@ -16731,7 +16727,7 @@
         <v>-2.0675700000000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>161153</v>
       </c>
@@ -16745,7 +16741,7 @@
         <v>-2.0918900000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>163027</v>
       </c>
@@ -16759,7 +16755,7 @@
         <v>-2.1162199999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>164901</v>
       </c>
@@ -16773,7 +16769,7 @@
         <v>-2.1405400000000002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>166775</v>
       </c>
@@ -16787,7 +16783,7 @@
         <v>-2.16486E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>168649</v>
       </c>
@@ -16801,7 +16797,7 @@
         <v>-2.1891899999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>170523</v>
       </c>
@@ -16815,7 +16811,7 @@
         <v>-2.2135100000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>172396</v>
       </c>
@@ -16829,7 +16825,7 @@
         <v>-2.23784E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>174270</v>
       </c>
@@ -16843,7 +16839,7 @@
         <v>-2.2621599999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>176144</v>
       </c>
@@ -16857,7 +16853,7 @@
         <v>-2.2864900000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>178018</v>
       </c>
@@ -16871,7 +16867,7 @@
         <v>-2.3108099999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>179892</v>
       </c>
@@ -16885,7 +16881,7 @@
         <v>-2.3351400000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>181766</v>
       </c>
@@ -16899,7 +16895,7 @@
         <v>-2.35946E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>183640</v>
       </c>
@@ -16913,7 +16909,7 @@
         <v>-2.3837799999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>185514</v>
       </c>
@@ -16927,7 +16923,7 @@
         <v>-2.4081100000000001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>187387</v>
       </c>
@@ -16941,7 +16937,7 @@
         <v>-2.43243E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>189261</v>
       </c>
@@ -16955,7 +16951,7 @@
         <v>-2.4567599999999998E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>191135</v>
       </c>
@@ -16969,7 +16965,7 @@
         <v>-2.4810800000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>193009</v>
       </c>
@@ -16983,7 +16979,7 @@
         <v>-2.5054099999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>194883</v>
       </c>
@@ -16997,7 +16993,7 @@
         <v>-2.5297300000000002E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>196757</v>
       </c>
@@ -17011,7 +17007,7 @@
         <v>-2.5540500000000001E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>198631</v>
       </c>
@@ -17025,7 +17021,7 @@
         <v>-2.5783799999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>200505</v>
       </c>
@@ -17039,7 +17035,7 @@
         <v>-2.6027000000000002E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>202378</v>
       </c>
@@ -17053,7 +17049,7 @@
         <v>-2.62703E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>204252</v>
       </c>
@@ -17067,7 +17063,7 @@
         <v>-2.6513499999999999E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>206126</v>
       </c>
@@ -17081,7 +17077,7 @@
         <v>-2.6756800000000001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>208000</v>
       </c>
@@ -17095,7 +17091,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>209874</v>
       </c>
@@ -17109,7 +17105,7 @@
         <v>-2.7243199999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>211748</v>
       </c>
@@ -17123,7 +17119,7 @@
         <v>-2.7486500000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>213622</v>
       </c>
@@ -17137,7 +17133,7 @@
         <v>-2.7729699999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>215495</v>
       </c>
@@ -17151,7 +17147,7 @@
         <v>-2.7973000000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>217369</v>
       </c>
@@ -17165,7 +17161,7 @@
         <v>-2.82162E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>219243</v>
       </c>
@@ -17179,7 +17175,7 @@
         <v>-2.8459499999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>221117</v>
       </c>
@@ -17193,7 +17189,7 @@
         <v>-2.8702700000000001E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>222991</v>
       </c>
@@ -17207,7 +17203,7 @@
         <v>-2.89459E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>224865</v>
       </c>
@@ -17221,7 +17217,7 @@
         <v>-2.9189199999999998E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>226739</v>
       </c>
@@ -17235,7 +17231,7 @@
         <v>-2.9432400000000001E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>228613</v>
       </c>
@@ -17249,7 +17245,7 @@
         <v>-2.9675699999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>230486</v>
       </c>
@@ -17263,7 +17259,7 @@
         <v>-2.9918899999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>232360</v>
       </c>
@@ -17277,7 +17273,7 @@
         <v>-3.01622E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>234234</v>
       </c>
@@ -17291,7 +17287,7 @@
         <v>-3.0405399999999999E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>236108</v>
       </c>
@@ -17305,7 +17301,7 @@
         <v>-3.0648600000000002E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>237982</v>
       </c>
@@ -17319,7 +17315,7 @@
         <v>-3.08919E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>239856</v>
       </c>
@@ -17333,7 +17329,7 @@
         <v>-3.1135099999999999E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>241730</v>
       </c>
@@ -17347,7 +17343,7 @@
         <v>-3.1378400000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>243604</v>
       </c>
@@ -17361,7 +17357,7 @@
         <v>-3.16216E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>245477</v>
       </c>
@@ -17375,7 +17371,7 @@
         <v>-3.1864900000000002E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>247351</v>
       </c>
@@ -17389,7 +17385,7 @@
         <v>-3.2108100000000001E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>249225</v>
       </c>
@@ -17403,7 +17399,7 @@
         <v>-3.2351400000000002E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>251099</v>
       </c>
@@ -17417,7 +17413,7 @@
         <v>-3.2594600000000001E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>252973</v>
       </c>
@@ -17431,7 +17427,7 @@
         <v>-3.28378E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>254847</v>
       </c>
@@ -17445,7 +17441,7 @@
         <v>-3.3081100000000002E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>256721</v>
       </c>
@@ -17459,7 +17455,7 @@
         <v>-3.3324300000000001E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>258595</v>
       </c>
@@ -17473,7 +17469,7 @@
         <v>-3.3567600000000003E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>260468</v>
       </c>
@@ -17487,7 +17483,7 @@
         <v>-3.3810800000000002E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>262342</v>
       </c>
@@ -17501,7 +17497,7 @@
         <v>-3.4054099999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>264216</v>
       </c>
@@ -17515,7 +17511,7 @@
         <v>-3.4297300000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>266090</v>
       </c>
@@ -17529,7 +17525,7 @@
         <v>-3.4540500000000002E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>267964</v>
       </c>
@@ -17543,7 +17539,7 @@
         <v>-3.4783799999999997E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>269838</v>
       </c>
@@ -17557,7 +17553,7 @@
         <v>-3.5027000000000003E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>271712</v>
       </c>
@@ -17571,7 +17567,7 @@
         <v>-3.5270299999999997E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>273586</v>
       </c>
@@ -17585,7 +17581,7 @@
         <v>-3.5513500000000003E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>275459</v>
       </c>
@@ -17599,7 +17595,7 @@
         <v>-3.5756799999999998E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>277333</v>
       </c>
@@ -17613,7 +17609,7 @@
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>279207</v>
       </c>
@@ -17627,7 +17623,7 @@
         <v>-3.6243200000000003E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>281081</v>
       </c>
@@ -17641,7 +17637,7 @@
         <v>-3.6486499999999998E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>282955</v>
       </c>
@@ -17655,7 +17651,7 @@
         <v>-3.6729699999999997E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>284829</v>
       </c>
@@ -17669,7 +17665,7 @@
         <v>-3.6972999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>286703</v>
       </c>
@@ -17683,7 +17679,7 @@
         <v>-3.7216199999999998E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>288577</v>
       </c>
@@ -17697,7 +17693,7 @@
         <v>-3.74595E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>290450</v>
       </c>
@@ -17711,7 +17707,7 @@
         <v>-3.7702699999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>292324</v>
       </c>
@@ -17725,7 +17721,7 @@
         <v>-3.7945899999999998E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>294198</v>
       </c>
@@ -17739,7 +17735,7 @@
         <v>-3.81892E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>296072</v>
       </c>
@@ -17753,7 +17749,7 @@
         <v>-3.8432399999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>297946</v>
       </c>
@@ -17767,7 +17763,7 @@
         <v>-3.86757E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>299820</v>
       </c>
@@ -17781,7 +17777,7 @@
         <v>-3.8918899999999999E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>301694</v>
       </c>
@@ -17795,7 +17791,7 @@
         <v>-3.9162200000000001E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>303568</v>
       </c>
@@ -17809,7 +17805,7 @@
         <v>-3.94054E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>305441</v>
       </c>
@@ -17823,7 +17819,7 @@
         <v>-3.9648599999999999E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>307315</v>
       </c>
@@ -17837,7 +17833,7 @@
         <v>-3.9891900000000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>309189</v>
       </c>
@@ -17851,7 +17847,7 @@
         <v>-4.01351E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>311063</v>
       </c>
@@ -17865,7 +17861,7 @@
         <v>-4.0378400000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>312937</v>
       </c>
@@ -17879,7 +17875,7 @@
         <v>-4.0621600000000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>314811</v>
       </c>
@@ -17893,7 +17889,7 @@
         <v>-4.0864900000000003E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>316685</v>
       </c>
@@ -17907,7 +17903,7 @@
         <v>-4.1108100000000002E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>318559</v>
       </c>
@@ -17921,7 +17917,7 @@
         <v>-4.1351400000000003E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>320432</v>
       </c>
@@ -17935,7 +17931,7 @@
         <v>-4.1594600000000002E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>322306</v>
       </c>
@@ -17949,7 +17945,7 @@
         <v>-4.1837800000000001E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>324180</v>
       </c>
@@ -17963,7 +17959,7 @@
         <v>-4.2081100000000003E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>326054</v>
       </c>
@@ -17977,7 +17973,7 @@
         <v>-4.2324300000000002E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>327928</v>
       </c>
@@ -17991,7 +17987,7 @@
         <v>-4.2567599999999997E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>329802</v>
       </c>
@@ -18005,7 +18001,7 @@
         <v>-4.2810800000000003E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>331676</v>
       </c>
@@ -18019,7 +18015,7 @@
         <v>-4.3054099999999998E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>333550</v>
       </c>
@@ -18033,7 +18029,7 @@
         <v>-4.3297299999999997E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>335423</v>
       </c>
@@ -18047,7 +18043,7 @@
         <v>-4.3540500000000003E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>337297</v>
       </c>
@@ -18061,7 +18057,7 @@
         <v>-4.3783799999999998E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>339171</v>
       </c>
@@ -18075,7 +18071,7 @@
         <v>-4.4026999999999997E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>341045</v>
       </c>
@@ -18089,7 +18085,7 @@
         <v>-4.4270299999999999E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>342919</v>
       </c>
@@ -18103,7 +18099,7 @@
         <v>-4.4513499999999998E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>344793</v>
       </c>
@@ -18117,7 +18113,7 @@
         <v>-4.4756799999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>346667</v>
       </c>
@@ -18131,7 +18127,7 @@
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>348541</v>
       </c>
@@ -18145,7 +18141,7 @@
         <v>-4.5243199999999997E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>350414</v>
       </c>
@@ -18159,7 +18155,7 @@
         <v>-4.5486499999999999E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>352288</v>
       </c>
@@ -18173,7 +18169,7 @@
         <v>-4.5729699999999998E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>354162</v>
       </c>
@@ -18187,7 +18183,7 @@
         <v>-4.5973E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>356036</v>
       </c>
@@ -18201,7 +18197,7 @@
         <v>-4.6216199999999999E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>357910</v>
       </c>
@@ -18215,7 +18211,7 @@
         <v>-4.6459500000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>359784</v>
       </c>
@@ -18229,7 +18225,7 @@
         <v>-4.67027E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>361658</v>
       </c>
@@ -18243,7 +18239,7 @@
         <v>-4.6945899999999999E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>363532</v>
       </c>
@@ -18257,7 +18253,7 @@
         <v>-4.7189200000000001E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>365405</v>
       </c>
@@ -18271,7 +18267,7 @@
         <v>-4.74324E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>367279</v>
       </c>
@@ -18285,7 +18281,7 @@
         <v>-4.7675700000000001E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>369153</v>
       </c>
@@ -18299,7 +18295,7 @@
         <v>-4.79189E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>371027</v>
       </c>
@@ -18313,7 +18309,7 @@
         <v>-4.8162200000000002E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>372901</v>
       </c>
@@ -18327,7 +18323,7 @@
         <v>-4.8405400000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>374775</v>
       </c>
@@ -18341,7 +18337,7 @@
         <v>-4.86486E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>376649</v>
       </c>
@@ -18355,7 +18351,7 @@
         <v>-4.8891900000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>378523</v>
       </c>
@@ -18369,7 +18365,7 @@
         <v>-4.9135100000000001E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>380396</v>
       </c>
@@ -18383,7 +18379,7 @@
         <v>-4.9378400000000003E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>382270</v>
       </c>
@@ -18397,7 +18393,7 @@
         <v>-4.9621600000000002E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>384144</v>
       </c>
@@ -18411,7 +18407,7 @@
         <v>-4.9864899999999997E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>386018</v>
       </c>
@@ -18425,7 +18421,7 @@
         <v>-5.0108100000000003E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>387892</v>
       </c>
@@ -18439,7 +18435,7 @@
         <v>-5.0351399999999998E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>389766</v>
       </c>
@@ -18453,7 +18449,7 @@
         <v>-5.0594600000000003E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>391640</v>
       </c>
@@ -18467,7 +18463,7 @@
         <v>-5.0837800000000002E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>393514</v>
       </c>
@@ -18481,7 +18477,7 @@
         <v>-5.1081099999999997E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>395387</v>
       </c>
@@ -18495,7 +18491,7 @@
         <v>-5.1324300000000003E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>397261</v>
       </c>
@@ -18509,7 +18505,7 @@
         <v>-5.1567599999999998E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>399135</v>
       </c>
@@ -18523,7 +18519,7 @@
         <v>-5.1810799999999997E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>401009</v>
       </c>
@@ -18537,7 +18533,7 @@
         <v>-5.2054099999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>402883</v>
       </c>
@@ -18551,7 +18547,7 @@
         <v>-5.2297299999999998E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>404757</v>
       </c>
@@ -18565,7 +18561,7 @@
         <v>-5.2540499999999997E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>406631</v>
       </c>
@@ -18579,7 +18575,7 @@
         <v>-5.2783799999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>408505</v>
       </c>
@@ -18593,7 +18589,7 @@
         <v>-5.3026999999999998E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>410378</v>
       </c>
@@ -18607,7 +18603,7 @@
         <v>-5.32703E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>412252</v>
       </c>
@@ -18621,7 +18617,7 @@
         <v>-5.3513499999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>414126</v>
       </c>
@@ -18635,7 +18631,7 @@
         <v>-5.37568E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>416000</v>
       </c>
@@ -18649,7 +18645,7 @@
         <v>-5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>417874</v>
       </c>
@@ -18663,7 +18659,7 @@
         <v>-5.4243199999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>419748</v>
       </c>
@@ -18677,7 +18673,7 @@
         <v>-5.44865E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>421622</v>
       </c>
@@ -18691,7 +18687,7 @@
         <v>-5.4729699999999999E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>423495</v>
       </c>
@@ -18705,7 +18701,7 @@
         <v>-5.4973000000000001E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>425369</v>
       </c>
@@ -18719,7 +18715,7 @@
         <v>-5.52162E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>427243</v>
       </c>
@@ -18733,7 +18729,7 @@
         <v>-5.5459500000000002E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>429117</v>
       </c>
@@ -18747,7 +18743,7 @@
         <v>-5.5702700000000001E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>430991</v>
       </c>
@@ -18761,7 +18757,7 @@
         <v>-5.59459E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>432865</v>
       </c>
@@ -18775,7 +18771,7 @@
         <v>-5.6189200000000002E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>434739</v>
       </c>
@@ -18789,7 +18785,7 @@
         <v>-5.6432400000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>436613</v>
       </c>
@@ -18803,7 +18799,7 @@
         <v>-5.6675700000000002E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>438486</v>
       </c>
@@ -18817,7 +18813,7 @@
         <v>-5.6918900000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>440360</v>
       </c>
@@ -18831,7 +18827,7 @@
         <v>-5.7162200000000003E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>442234</v>
       </c>
@@ -18845,7 +18841,7 @@
         <v>-5.7405400000000002E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>444108</v>
       </c>
@@ -18859,7 +18855,7 @@
         <v>-5.7648600000000001E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>445982</v>
       </c>
@@ -18873,7 +18869,7 @@
         <v>-5.7891900000000003E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>447856</v>
       </c>
@@ -18887,7 +18883,7 @@
         <v>-5.8135100000000002E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>449730</v>
       </c>
@@ -18901,7 +18897,7 @@
         <v>-5.8378399999999997E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>451604</v>
       </c>
@@ -18915,7 +18911,7 @@
         <v>-5.8621600000000003E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>453477</v>
       </c>
@@ -18929,7 +18925,7 @@
         <v>-5.8864899999999998E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>455351</v>
       </c>
@@ -18943,7 +18939,7 @@
         <v>-5.9108099999999997E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>457225</v>
       </c>
@@ -18957,7 +18953,7 @@
         <v>-5.9351399999999999E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>459099</v>
       </c>
@@ -18971,7 +18967,7 @@
         <v>-5.9594599999999998E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>460973</v>
       </c>
@@ -18985,7 +18981,7 @@
         <v>-5.9837799999999997E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>462847</v>
       </c>
@@ -18999,7 +18995,7 @@
         <v>-6.0081099999999998E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>464721</v>
       </c>
@@ -19013,7 +19009,7 @@
         <v>-6.0324299999999997E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>466595</v>
       </c>
@@ -19027,7 +19023,7 @@
         <v>-6.0567599999999999E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>468468</v>
       </c>
@@ -19041,7 +19037,7 @@
         <v>-6.0810799999999998E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>470342</v>
       </c>
@@ -19055,7 +19051,7 @@
         <v>-6.10541E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>472216</v>
       </c>
@@ -19069,7 +19065,7 @@
         <v>-6.1297299999999999E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>474090</v>
       </c>
@@ -19083,7 +19079,7 @@
         <v>-6.1540499999999998E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>475964</v>
       </c>
@@ -19097,7 +19093,7 @@
         <v>-6.17838E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>477838</v>
       </c>
@@ -19111,7 +19107,7 @@
         <v>-6.2026999999999999E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>479712</v>
       </c>
@@ -19125,7 +19121,7 @@
         <v>-6.2270300000000001E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>481586</v>
       </c>
@@ -19139,7 +19135,7 @@
         <v>-6.25135E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>483459</v>
       </c>
@@ -19153,7 +19149,7 @@
         <v>-6.2756800000000001E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>485333</v>
       </c>
@@ -19167,7 +19163,7 @@
         <v>-6.3E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>487207</v>
       </c>
@@ -19181,7 +19177,7 @@
         <v>-6.3243199999999999E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>489081</v>
       </c>
@@ -19195,7 +19191,7 @@
         <v>-6.3486500000000001E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>490955</v>
       </c>
@@ -19209,7 +19205,7 @@
         <v>-6.37297E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>492829</v>
       </c>
@@ -19223,7 +19219,7 @@
         <v>-6.3973000000000002E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>494703</v>
       </c>
@@ -19237,7 +19233,7 @@
         <v>-6.4216200000000001E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>496577</v>
       </c>
@@ -19251,7 +19247,7 @@
         <v>-6.4459500000000003E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>498450</v>
       </c>
@@ -19265,7 +19261,7 @@
         <v>-6.4702700000000002E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>500324</v>
       </c>
@@ -19279,7 +19275,7 @@
         <v>-6.4945900000000001E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>502198</v>
       </c>
@@ -19293,7 +19289,7 @@
         <v>-6.5189200000000003E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>504072</v>
       </c>
@@ -19307,7 +19303,7 @@
         <v>-6.5432400000000002E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>505946</v>
       </c>
@@ -19321,7 +19317,7 @@
         <v>-6.5675700000000004E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>507820</v>
       </c>
@@ -19335,7 +19331,7 @@
         <v>-6.5918900000000002E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>509694</v>
       </c>
@@ -19349,7 +19345,7 @@
         <v>-6.6162200000000004E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>511568</v>
       </c>
@@ -19363,7 +19359,7 @@
         <v>-6.6405400000000003E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>513441</v>
       </c>
@@ -19377,7 +19373,7 @@
         <v>-6.6648600000000002E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>515315</v>
       </c>
@@ -19391,7 +19387,7 @@
         <v>-6.6891900000000004E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>517189</v>
       </c>
@@ -19405,7 +19401,7 @@
         <v>-6.7135100000000003E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>519063</v>
       </c>
@@ -19419,7 +19415,7 @@
         <v>-6.7378400000000005E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>520937</v>
       </c>
@@ -19433,7 +19429,7 @@
         <v>-6.7621600000000004E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>522811</v>
       </c>
@@ -19447,7 +19443,7 @@
         <v>-6.7864900000000006E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>524685</v>
       </c>
@@ -19461,7 +19457,7 @@
         <v>-6.8108100000000005E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>526559</v>
       </c>
@@ -19475,7 +19471,7 @@
         <v>-6.8351400000000007E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>528432</v>
       </c>
@@ -19489,7 +19485,7 @@
         <v>-6.8594600000000006E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>530306</v>
       </c>
@@ -19503,7 +19499,7 @@
         <v>-6.8837800000000005E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>532180</v>
       </c>
@@ -19517,7 +19513,7 @@
         <v>-6.9081100000000006E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>534054</v>
       </c>
@@ -19531,7 +19527,7 @@
         <v>-6.9324300000000005E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>535928</v>
       </c>
@@ -19545,7 +19541,7 @@
         <v>-6.9567599999999993E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>537802</v>
       </c>
@@ -19559,7 +19555,7 @@
         <v>-6.9810800000000006E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>539676</v>
       </c>
@@ -19573,7 +19569,7 @@
         <v>-7.0054099999999994E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>541550</v>
       </c>
@@ -19587,7 +19583,7 @@
         <v>-7.0297299999999993E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>543423</v>
       </c>
@@ -19601,7 +19597,7 @@
         <v>-7.0540500000000006E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>545297</v>
       </c>
@@ -19615,7 +19611,7 @@
         <v>-7.0783799999999994E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>547171</v>
       </c>
@@ -19629,7 +19625,7 @@
         <v>-7.1027000000000007E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>549045</v>
       </c>
@@ -19643,7 +19639,7 @@
         <v>-7.1270299999999995E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>550919</v>
       </c>
@@ -19657,7 +19653,7 @@
         <v>-7.1513499999999994E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>552793</v>
       </c>
@@ -19671,7 +19667,7 @@
         <v>-7.1756799999999996E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>554667</v>
       </c>
@@ -19685,7 +19681,7 @@
         <v>-7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>556541</v>
       </c>
@@ -19699,7 +19695,7 @@
         <v>-7.2243199999999994E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>558414</v>
       </c>
@@ -19713,7 +19709,7 @@
         <v>-7.2486499999999995E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>560288</v>
       </c>
@@ -19727,7 +19723,7 @@
         <v>-7.2729699999999994E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>562162</v>
       </c>
@@ -19741,7 +19737,7 @@
         <v>-7.2972999999999996E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>564036</v>
       </c>
@@ -19755,7 +19751,7 @@
         <v>-7.3216199999999995E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>565910</v>
       </c>
@@ -19769,7 +19765,7 @@
         <v>-7.3459499999999997E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>567784</v>
       </c>
@@ -19783,7 +19779,7 @@
         <v>-7.3702699999999996E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>569658</v>
       </c>
@@ -19797,7 +19793,7 @@
         <v>-7.3945899999999995E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>571532</v>
       </c>
@@ -19811,7 +19807,7 @@
         <v>-7.4189199999999997E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>573405</v>
       </c>
@@ -19825,7 +19821,7 @@
         <v>-7.4432399999999996E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>575279</v>
       </c>
@@ -19839,7 +19835,7 @@
         <v>-7.4675699999999998E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>577153</v>
       </c>
@@ -19853,7 +19849,7 @@
         <v>-7.4918899999999997E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>579027</v>
       </c>
@@ -19867,7 +19863,7 @@
         <v>-7.5162199999999998E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>580901</v>
       </c>
@@ -19881,7 +19877,7 @@
         <v>-7.5405399999999997E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>582775</v>
       </c>
@@ -19895,7 +19891,7 @@
         <v>-7.5648599999999996E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>584649</v>
       </c>
@@ -19909,7 +19905,7 @@
         <v>-7.5891899999999998E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>586523</v>
       </c>
@@ -19923,7 +19919,7 @@
         <v>-7.6135099999999997E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>588396</v>
       </c>
@@ -19937,7 +19933,7 @@
         <v>-7.6378399999999999E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>590270</v>
       </c>
@@ -19951,7 +19947,7 @@
         <v>-7.6621599999999998E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>592144</v>
       </c>
@@ -19965,7 +19961,7 @@
         <v>-7.68649E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>594018</v>
       </c>
@@ -19979,7 +19975,7 @@
         <v>-7.7108099999999999E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>595892</v>
       </c>
@@ -19993,7 +19989,7 @@
         <v>-7.7351400000000001E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>597766</v>
       </c>
@@ -20007,7 +20003,7 @@
         <v>-7.75946E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>599640</v>
       </c>
@@ -20021,7 +20017,7 @@
         <v>-7.7837799999999999E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>601514</v>
       </c>
@@ -20035,7 +20031,7 @@
         <v>-7.8081100000000001E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>603387</v>
       </c>
@@ -20049,7 +20045,7 @@
         <v>-7.8324299999999999E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>605261</v>
       </c>
@@ -20063,7 +20059,7 @@
         <v>-7.8567600000000001E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>607135</v>
       </c>
@@ -20077,7 +20073,7 @@
         <v>-7.88108E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>609009</v>
       </c>
@@ -20091,7 +20087,7 @@
         <v>-7.9054100000000002E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>610883</v>
       </c>
@@ -20105,7 +20101,7 @@
         <v>-7.9297300000000001E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>612757</v>
       </c>
@@ -20119,7 +20115,7 @@
         <v>-7.95405E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>614631</v>
       </c>
@@ -20133,7 +20129,7 @@
         <v>-7.9783800000000002E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>616505</v>
       </c>
@@ -20147,7 +20143,7 @@
         <v>-8.0027000000000001E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>618378</v>
       </c>
@@ -20161,7 +20157,7 @@
         <v>-8.0270300000000003E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>620252</v>
       </c>
@@ -20175,7 +20171,7 @@
         <v>-8.0513500000000002E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>622126</v>
       </c>
@@ -20189,7 +20185,7 @@
         <v>-8.0756800000000004E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>624000</v>
       </c>
@@ -20203,7 +20199,7 @@
         <v>-8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>625874</v>
       </c>
@@ -20217,7 +20213,7 @@
         <v>-8.1243200000000002E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>627748</v>
       </c>
@@ -20231,7 +20227,7 @@
         <v>-8.1486500000000003E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>629622</v>
       </c>
@@ -20245,7 +20241,7 @@
         <v>-8.1729700000000002E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>631495</v>
       </c>
@@ -20259,7 +20255,7 @@
         <v>-8.1973000000000004E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>633369</v>
       </c>
@@ -20273,7 +20269,7 @@
         <v>-8.2216200000000003E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>635243</v>
       </c>
@@ -20287,7 +20283,7 @@
         <v>-8.2459500000000005E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>637117</v>
       </c>
@@ -20301,7 +20297,7 @@
         <v>-8.2702700000000004E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>638991</v>
       </c>
@@ -20315,7 +20311,7 @@
         <v>-8.2945900000000003E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>640865</v>
       </c>
@@ -20329,7 +20325,7 @@
         <v>-8.3189200000000005E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>642739</v>
       </c>
@@ -20343,7 +20339,7 @@
         <v>-8.3432400000000004E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>644613</v>
       </c>
@@ -20357,7 +20353,7 @@
         <v>-8.3675700000000006E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>646486</v>
       </c>
@@ -20371,7 +20367,7 @@
         <v>-8.3918900000000005E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>648360</v>
       </c>
@@ -20385,7 +20381,7 @@
         <v>-8.4162200000000006E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>650234</v>
       </c>
@@ -20399,7 +20395,7 @@
         <v>-8.4405400000000005E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>652108</v>
       </c>
@@ -20413,7 +20409,7 @@
         <v>-8.4648600000000004E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>653982</v>
       </c>
@@ -20427,7 +20423,7 @@
         <v>-8.4891900000000006E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>655856</v>
       </c>
@@ -20441,7 +20437,7 @@
         <v>-8.5135100000000005E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>657730</v>
       </c>
@@ -20455,7 +20451,7 @@
         <v>-8.5378399999999993E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>659604</v>
       </c>
@@ -20469,7 +20465,7 @@
         <v>-8.5621600000000006E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>661477</v>
       </c>
@@ -20483,7 +20479,7 @@
         <v>-8.5864899999999994E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>663351</v>
       </c>
@@ -20497,7 +20493,7 @@
         <v>-8.6108100000000007E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>665225</v>
       </c>
@@ -20511,7 +20507,7 @@
         <v>-8.6351399999999995E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>667099</v>
       </c>
@@ -20525,7 +20521,7 @@
         <v>-8.6594599999999994E-2</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>668973</v>
       </c>
@@ -20539,7 +20535,7 @@
         <v>-8.6837800000000007E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>670847</v>
       </c>
@@ -20553,7 +20549,7 @@
         <v>-8.7081099999999995E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>672721</v>
       </c>
@@ -20567,7 +20563,7 @@
         <v>-8.7324299999999994E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>674595</v>
       </c>
@@ -20581,7 +20577,7 @@
         <v>-8.7567599999999995E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>676468</v>
       </c>
@@ -20595,7 +20591,7 @@
         <v>-8.7810799999999994E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>678342</v>
       </c>
@@ -20609,7 +20605,7 @@
         <v>-8.8054099999999996E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>680216</v>
       </c>
@@ -20623,7 +20619,7 @@
         <v>-8.8297299999999995E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>682090</v>
       </c>
@@ -20637,7 +20633,7 @@
         <v>-8.8540499999999994E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>683964</v>
       </c>
@@ -20651,7 +20647,7 @@
         <v>-8.8783799999999996E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>685838</v>
       </c>
@@ -20665,7 +20661,7 @@
         <v>-8.9026999999999995E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>687712</v>
       </c>
@@ -20679,7 +20675,7 @@
         <v>-8.9270299999999997E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>689586</v>
       </c>
@@ -20693,7 +20689,7 @@
         <v>-8.9513499999999996E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>691459</v>
       </c>
@@ -20707,7 +20703,7 @@
         <v>-8.9756799999999998E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>693333</v>
       </c>
@@ -20721,7 +20717,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>695207</v>
       </c>
@@ -20735,7 +20731,7 @@
         <v>-9.0243199999999996E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>697081</v>
       </c>
@@ -20749,7 +20745,7 @@
         <v>-9.0486499999999997E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>698955</v>
       </c>
@@ -20763,7 +20759,7 @@
         <v>-9.0729699999999996E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>700829</v>
       </c>
@@ -20777,7 +20773,7 @@
         <v>-9.0972999999999998E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>702703</v>
       </c>
@@ -20791,7 +20787,7 @@
         <v>-9.1216199999999997E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>704577</v>
       </c>
@@ -20805,7 +20801,7 @@
         <v>-9.1459499999999999E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>706450</v>
       </c>
@@ -20819,7 +20815,7 @@
         <v>-9.1702699999999998E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>708324</v>
       </c>
@@ -20833,7 +20829,7 @@
         <v>-9.1945899999999997E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>710198</v>
       </c>
@@ -20847,7 +20843,7 @@
         <v>-9.2189199999999999E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>712072</v>
       </c>
@@ -20861,7 +20857,7 @@
         <v>-9.2432399999999998E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>713946</v>
       </c>
@@ -20875,7 +20871,7 @@
         <v>-9.26757E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>715820</v>
       </c>
@@ -20889,7 +20885,7 @@
         <v>-9.2918899999999999E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>717694</v>
       </c>
@@ -20903,7 +20899,7 @@
         <v>-9.3162200000000001E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>719568</v>
       </c>
@@ -20917,7 +20913,7 @@
         <v>-9.34054E-2</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>721441</v>
       </c>
@@ -20931,7 +20927,7 @@
         <v>-9.3648599999999999E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>723315</v>
       </c>
@@ -20945,7 +20941,7 @@
         <v>-9.38919E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>725189</v>
       </c>
@@ -20959,7 +20955,7 @@
         <v>-9.4135099999999999E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>727063</v>
       </c>
@@ -20973,7 +20969,7 @@
         <v>-9.4378400000000001E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>728937</v>
       </c>
@@ -20987,7 +20983,7 @@
         <v>-9.46216E-2</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>730811</v>
       </c>
@@ -21001,7 +20997,7 @@
         <v>-9.4864900000000002E-2</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>732685</v>
       </c>
@@ -21015,7 +21011,7 @@
         <v>-9.5108100000000001E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>734559</v>
       </c>
@@ -21029,7 +21025,7 @@
         <v>-9.5351400000000003E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>736432</v>
       </c>
@@ -21043,7 +21039,7 @@
         <v>-9.5594600000000002E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>738306</v>
       </c>
@@ -21057,7 +21053,7 @@
         <v>-9.5837800000000001E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>740180</v>
       </c>
@@ -21071,7 +21067,7 @@
         <v>-9.6081100000000003E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>742054</v>
       </c>
@@ -21085,7 +21081,7 @@
         <v>-9.6324300000000002E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>743928</v>
       </c>
@@ -21099,7 +21095,7 @@
         <v>-9.6567600000000003E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>745802</v>
       </c>
@@ -21113,7 +21109,7 @@
         <v>-9.6810800000000002E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>747676</v>
       </c>
@@ -21127,7 +21123,7 @@
         <v>-9.7054100000000004E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>749550</v>
       </c>
@@ -21141,7 +21137,7 @@
         <v>-9.7297300000000003E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>751423</v>
       </c>
@@ -21155,7 +21151,7 @@
         <v>-9.7540500000000002E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>753297</v>
       </c>
@@ -21169,7 +21165,7 @@
         <v>-9.7783800000000004E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>755171</v>
       </c>
@@ -21183,7 +21179,7 @@
         <v>-9.8027000000000003E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>757045</v>
       </c>
@@ -21197,7 +21193,7 @@
         <v>-9.8270300000000005E-2</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>758919</v>
       </c>
@@ -21211,7 +21207,7 @@
         <v>-9.8513500000000004E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>760793</v>
       </c>
@@ -21225,7 +21221,7 @@
         <v>-9.8756800000000006E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>762667</v>
       </c>
@@ -21239,7 +21235,7 @@
         <v>-9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>764541</v>
       </c>
@@ -21253,7 +21249,7 @@
         <v>-9.9243200000000004E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>766414</v>
       </c>
@@ -21267,7 +21263,7 @@
         <v>-9.9486500000000005E-2</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>768288</v>
       </c>
@@ -21281,7 +21277,7 @@
         <v>-9.9729700000000004E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>770162</v>
       </c>
@@ -21295,7 +21291,7 @@
         <v>-9.9973000000000006E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>772036</v>
       </c>
@@ -21309,7 +21305,7 @@
         <v>-0.100216</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>773910</v>
       </c>
@@ -21323,7 +21319,7 @@
         <v>-0.10045900000000001</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>775784</v>
       </c>
@@ -21337,7 +21333,7 @@
         <v>-0.100703</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>777658</v>
       </c>
@@ -21351,7 +21347,7 @@
         <v>-0.10094599999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>779532</v>
       </c>
@@ -21365,7 +21361,7 @@
         <v>-0.101189</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>781405</v>
       </c>
@@ -21379,7 +21375,7 @@
         <v>-0.10143199999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>783279</v>
       </c>
@@ -21393,7 +21389,7 @@
         <v>-0.101676</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>785153</v>
       </c>
@@ -21407,7 +21403,7 @@
         <v>-0.101919</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>787027</v>
       </c>
@@ -21421,7 +21417,7 @@
         <v>-0.102162</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>788901</v>
       </c>
@@ -21435,7 +21431,7 @@
         <v>-0.102405</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>790775</v>
       </c>
@@ -21449,7 +21445,7 @@
         <v>-0.102649</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>792649</v>
       </c>
@@ -21463,7 +21459,7 @@
         <v>-0.102892</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>794523</v>
       </c>
@@ -21477,7 +21473,7 @@
         <v>-0.103135</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>796396</v>
       </c>
@@ -21491,7 +21487,7 @@
         <v>-0.103378</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>798270</v>
       </c>
@@ -21505,7 +21501,7 @@
         <v>-0.10362200000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>800144</v>
       </c>
@@ -21519,7 +21515,7 @@
         <v>-0.103865</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>802018</v>
       </c>
@@ -21533,7 +21529,7 @@
         <v>-0.10410800000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>803892</v>
       </c>
@@ -21547,7 +21543,7 @@
         <v>-0.104351</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>805766</v>
       </c>
@@ -21561,7 +21557,7 @@
         <v>-0.10459499999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>807640</v>
       </c>
@@ -21575,7 +21571,7 @@
         <v>-0.104838</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>809514</v>
       </c>
@@ -21589,7 +21585,7 @@
         <v>-0.10508099999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>811387</v>
       </c>
@@ -21603,7 +21599,7 @@
         <v>-0.105324</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>813261</v>
       </c>
@@ -21617,7 +21613,7 @@
         <v>-0.105568</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>815135</v>
       </c>
@@ -21631,7 +21627,7 @@
         <v>-0.105811</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>817009</v>
       </c>
@@ -21645,7 +21641,7 @@
         <v>-0.106054</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>818883</v>
       </c>
@@ -21659,7 +21655,7 @@
         <v>-0.106297</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>820757</v>
       </c>
@@ -21673,7 +21669,7 @@
         <v>-0.106541</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>822631</v>
       </c>
@@ -21687,7 +21683,7 @@
         <v>-0.106784</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>824505</v>
       </c>
@@ -21701,7 +21697,7 @@
         <v>-0.107027</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>826378</v>
       </c>
@@ -21715,7 +21711,7 @@
         <v>-0.10727</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>828252</v>
       </c>
@@ -21729,7 +21725,7 @@
         <v>-0.107514</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>830126</v>
       </c>
@@ -21743,7 +21739,7 @@
         <v>-0.10775700000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>832000</v>
       </c>
@@ -21757,7 +21753,7 @@
         <v>-0.108</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>833874</v>
       </c>
@@ -21771,7 +21767,7 @@
         <v>-0.10824300000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>835748</v>
       </c>
@@ -21785,7 +21781,7 @@
         <v>-0.108486</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>837622</v>
       </c>
@@ -21799,7 +21795,7 @@
         <v>-0.10872999999999999</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>839495</v>
       </c>
@@ -21813,7 +21809,7 @@
         <v>-0.108973</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>841369</v>
       </c>
@@ -21827,7 +21823,7 @@
         <v>-0.10921599999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>843243</v>
       </c>
@@ -21841,7 +21837,7 @@
         <v>-0.109459</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>845117</v>
       </c>
@@ -21855,7 +21851,7 @@
         <v>-0.10970299999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>846991</v>
       </c>
@@ -21869,7 +21865,7 @@
         <v>-0.109946</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>848865</v>
       </c>
@@ -21883,7 +21879,7 @@
         <v>-0.110189</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>850739</v>
       </c>
@@ -21897,7 +21893,7 @@
         <v>-0.110432</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>852613</v>
       </c>
@@ -21911,7 +21907,7 @@
         <v>-0.110676</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>854486</v>
       </c>
@@ -21925,7 +21921,7 @@
         <v>-0.110919</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>856360</v>
       </c>
@@ -21939,7 +21935,7 @@
         <v>-0.111162</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>858234</v>
       </c>
@@ -21953,7 +21949,7 @@
         <v>-0.111405</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>860108</v>
       </c>
@@ -21967,7 +21963,7 @@
         <v>-0.111649</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>861982</v>
       </c>
@@ -21981,7 +21977,7 @@
         <v>-0.11189200000000001</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>863856</v>
       </c>
@@ -21995,7 +21991,7 @@
         <v>-0.112135</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>865730</v>
       </c>
@@ -22009,7 +22005,7 @@
         <v>-0.11237800000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>867604</v>
       </c>
@@ -22023,7 +22019,7 @@
         <v>-0.112622</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>869477</v>
       </c>
@@ -22037,7 +22033,7 @@
         <v>-0.11286499999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>871351</v>
       </c>
@@ -22051,7 +22047,7 @@
         <v>-0.113108</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>873225</v>
       </c>
@@ -22065,7 +22061,7 @@
         <v>-0.11335099999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>875099</v>
       </c>
@@ -22079,7 +22075,7 @@
         <v>-0.113595</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>876973</v>
       </c>
@@ -22093,7 +22089,7 @@
         <v>-0.11383799999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>878847</v>
       </c>
@@ -22107,7 +22103,7 @@
         <v>-0.114081</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>880721</v>
       </c>
@@ -22121,7 +22117,7 @@
         <v>-0.114324</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>882595</v>
       </c>
@@ -22135,7 +22131,7 @@
         <v>-0.114568</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>884468</v>
       </c>
@@ -22149,7 +22145,7 @@
         <v>-0.114811</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>886342</v>
       </c>
@@ -22163,7 +22159,7 @@
         <v>-0.115054</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>888216</v>
       </c>
@@ -22177,7 +22173,7 @@
         <v>-0.115297</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>890090</v>
       </c>
@@ -22191,7 +22187,7 @@
         <v>-0.115541</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>891964</v>
       </c>
@@ -22205,7 +22201,7 @@
         <v>-0.115784</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>893838</v>
       </c>
@@ -22219,7 +22215,7 @@
         <v>-0.11602700000000001</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>895712</v>
       </c>
@@ -22233,7 +22229,7 @@
         <v>-0.11627</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>897586</v>
       </c>
@@ -22247,7 +22243,7 @@
         <v>-0.11651400000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>899459</v>
       </c>
@@ -22261,7 +22257,7 @@
         <v>-0.116757</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>901333</v>
       </c>
@@ -22275,7 +22271,7 @@
         <v>-0.11700000000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>903207</v>
       </c>
@@ -22289,7 +22285,7 @@
         <v>-0.117243</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>905081</v>
       </c>
@@ -22303,7 +22299,7 @@
         <v>-0.11748599999999999</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>906955</v>
       </c>
@@ -22317,7 +22313,7 @@
         <v>-0.11773</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>908829</v>
       </c>
@@ -22331,7 +22327,7 @@
         <v>-0.11797299999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>910703</v>
       </c>
@@ -22345,7 +22341,7 @@
         <v>-0.118216</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>912577</v>
       </c>
@@ -22359,7 +22355,7 @@
         <v>-0.11845899999999999</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>914450</v>
       </c>
@@ -22373,7 +22369,7 @@
         <v>-0.118703</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>916324</v>
       </c>
@@ -22387,7 +22383,7 @@
         <v>-0.118946</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>918198</v>
       </c>
@@ -22401,7 +22397,7 @@
         <v>-0.119189</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>920072</v>
       </c>
@@ -22415,7 +22411,7 @@
         <v>-0.119432</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>921946</v>
       </c>
@@ -22429,7 +22425,7 @@
         <v>-0.119676</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>923820</v>
       </c>
@@ -22443,7 +22439,7 @@
         <v>-0.119919</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>925694</v>
       </c>
@@ -22457,7 +22453,7 @@
         <v>-0.120162</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>927568</v>
       </c>
@@ -22471,7 +22467,7 @@
         <v>-0.120405</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>929441</v>
       </c>
@@ -22485,7 +22481,7 @@
         <v>-0.12064900000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>931315</v>
       </c>
@@ -22499,7 +22495,7 @@
         <v>-0.120892</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>933189</v>
       </c>
@@ -22513,7 +22509,7 @@
         <v>-0.12113500000000001</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>935063</v>
       </c>
@@ -22527,7 +22523,7 @@
         <v>-0.121378</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>936937</v>
       </c>
